--- a/VESPA/Vaccum_measurements.xlsx
+++ b/VESPA/Vaccum_measurements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -120,10 +120,40 @@
     <t>Discharge current [mV]</t>
   </si>
   <si>
+    <t>Te [eV]</t>
+  </si>
+  <si>
+    <t>N [m^-3]</t>
+  </si>
+  <si>
+    <t>Vp [V]</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>I (p = 1e-2, V=40V)</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
     <t xml:space="preserve">@ 6.1 Amps </t>
   </si>
   <si>
     <t>@ 6.7 Amps</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
   </si>
   <si>
     <t>Wave Dissipation</t>
@@ -136,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="[s]&quot;s&quot;"/>
     <numFmt numFmtId="60" formatCode="0.0####E+00"/>
@@ -146,6 +176,7 @@
     <numFmt numFmtId="64" formatCode="0.0###E+00"/>
     <numFmt numFmtId="65" formatCode="0.0#E+00"/>
     <numFmt numFmtId="66" formatCode="0.0E+00"/>
+    <numFmt numFmtId="67" formatCode="0E+00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -338,7 +369,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -399,13 +430,16 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -421,9 +455,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -484,6 +515,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="63" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="67" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -612,103 +646,103 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Vaccum'!$B$4:$B$36</c:f>
+              <c:f>'Vaccum'!$B$4:$B$37</c:f>
               <c:numCache>
                 <c:ptCount val="32"/>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10.000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>20.000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>30.000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>40.000000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>50.000000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>60.000000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>70.000000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>80.000000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>90.000000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>100.000000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>110.000000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>120.000000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>130.000000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>140.000000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>150.000000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>160.000000</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>170.000000</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>180.000000</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>210.000000</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>240.000000</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>270.000000</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>300.000000</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>330.000000</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>360.000000</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>390.000000</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>420.000000</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>450.000000</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>480.000000</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>510.000000</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>540.000000</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>570.000000</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>600.000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -716,9 +750,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Vaccum'!$C$4:$C$36</c:f>
+              <c:f>'Vaccum'!$C$4:$C$37</c:f>
               <c:numCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="1">
                   <c:v>0.000040</c:v>
                 </c:pt>
@@ -738,81 +772,84 @@
                   <c:v>0.000061</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.000067</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.000073</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.000078</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.000084</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.000088</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.000092</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.000097</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.000102</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.000106</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.000110</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.000115</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.000120</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.000124</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>0.000136</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.000148</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.000159</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.000172</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>0.000186</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>0.000196</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>0.000206</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.000219</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.000229</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.000241</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>0.000251</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.000261</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.000272</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.000283</c:v>
                 </c:pt>
               </c:numCache>
@@ -1059,118 +1096,118 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Vaccum'!$E$4:$E$41</c:f>
+              <c:f>'Vaccum'!$E$4:$E$42</c:f>
               <c:numCache>
                 <c:ptCount val="37"/>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10.000000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>15.000000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>20.000000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>25.000000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>30.000000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>40.000000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>50.000000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>60.000000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>90.000000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>120.000000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>150.000000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>180.000000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>210.000000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>240.000000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>270.000000</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>300.000000</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>330.000000</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>360.000000</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>390.000000</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>420.000000</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>450.000000</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>480.000000</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>510.000000</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>540.000000</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>570.000000</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>600.000000</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>630.000000</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>660.000000</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>690.000000</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>720.000000</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>750.000000</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>780.000000</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>810.000000</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>840.000000</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>870.000000</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>900.000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1178,89 +1215,86 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Vaccum'!$F$4:$F$41</c:f>
+              <c:f>'Vaccum'!$F$4:$F$42</c:f>
               <c:numCache>
                 <c:ptCount val="37"/>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.000332</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.000296</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.000260</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.000238</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.000214</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.000195</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.000155</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.000132</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.000113</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.000084</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.000069</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.000056</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.000053</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.000051</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.000049</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.000048</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.000046</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.000045</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.000044</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.000044</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.000044</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.000043</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>0.000042</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.000041</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.000041</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000040</c:v>
+                  <c:v>0.000041</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.000040</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.000039</c:v>
+                  <c:v>0.000040</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.000039</c:v>
@@ -1269,13 +1303,13 @@
                   <c:v>0.000039</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.000038</c:v>
+                  <c:v>0.000039</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.000038</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.000037</c:v>
+                  <c:v>0.000038</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.000037</c:v>
@@ -1287,9 +1321,12 @@
                   <c:v>0.000037</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0.000037</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.000036</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>0.000036</c:v>
                 </c:pt>
               </c:numCache>
@@ -4769,7 +4806,7 @@
     </row>
     <row r="23">
       <c r="B23" t="s" s="3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -4780,7 +4817,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4802,7 +4839,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G41"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -4866,762 +4903,776 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="20">
-        <v>10</v>
-      </c>
+      <c r="B5" s="20"/>
       <c r="C5" s="21">
         <v>4e-05</v>
       </c>
       <c r="D5" s="22">
         <f>E5/60</f>
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="E5" s="22">
-        <v>5</v>
-      </c>
-      <c r="F5" s="23">
-        <v>0.000332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="20">
-        <v>20</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="B6" s="23">
+        <v>10</v>
+      </c>
+      <c r="C6" s="24">
         <v>4.6e-05</v>
       </c>
       <c r="D6" s="22">
         <f>E6/60</f>
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="E6" s="22">
-        <v>10</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.000296</v>
+        <v>5</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.000332</v>
       </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="20">
-        <v>30</v>
-      </c>
-      <c r="C7" s="24">
+      <c r="B7" s="23">
+        <v>20</v>
+      </c>
+      <c r="C7" s="25">
         <v>5.02e-05</v>
       </c>
       <c r="D7" s="22">
         <f>E7/60</f>
-        <v>0.25</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E7" s="22">
-        <v>15</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0.00026</v>
+        <v>10</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.000296</v>
       </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="20">
-        <v>40</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="B8" s="23">
+        <v>30</v>
+      </c>
+      <c r="C8" s="26">
         <v>5.4e-05</v>
       </c>
       <c r="D8" s="22">
         <f>E8/60</f>
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E8" s="22">
-        <v>20</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0.000238</v>
+        <v>15</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.00026</v>
       </c>
       <c r="G8" s="19"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="20">
-        <v>50</v>
-      </c>
-      <c r="C9" s="24">
+      <c r="B9" s="23">
+        <v>40</v>
+      </c>
+      <c r="C9" s="25">
         <v>5.73e-05</v>
       </c>
       <c r="D9" s="22">
         <f>E9/60</f>
-        <v>0.416666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E9" s="22">
-        <v>25</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0.000214</v>
+        <v>20</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.000238</v>
       </c>
       <c r="G9" s="19"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="20">
-        <v>60</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="B10" s="23">
+        <v>50</v>
+      </c>
+      <c r="C10" s="25">
         <v>6.07e-05</v>
       </c>
       <c r="D10" s="22">
         <f>E10/60</f>
-        <v>0.5</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E10" s="22">
-        <v>30</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0.000195</v>
+        <v>25</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.000214</v>
       </c>
       <c r="G10" s="19"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="20">
-        <v>70</v>
+      <c r="B11" s="23">
+        <v>60</v>
       </c>
       <c r="C11" s="25">
-        <v>7.3e-05</v>
+        <v>6.68e-05</v>
       </c>
       <c r="D11" s="22">
         <f>E11/60</f>
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="22">
-        <v>40</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0.000155</v>
+        <v>30</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.000195</v>
       </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="20">
-        <v>80</v>
-      </c>
-      <c r="C12" s="24">
-        <v>7.82e-05</v>
+      <c r="B12" s="23">
+        <v>70</v>
+      </c>
+      <c r="C12" s="26">
+        <v>7.3e-05</v>
       </c>
       <c r="D12" s="22">
         <f>E12/60</f>
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E12" s="22">
-        <v>50</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0.000132</v>
+        <v>40</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.000155</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="20">
-        <v>90</v>
-      </c>
-      <c r="C13" s="24">
-        <v>8.36e-05</v>
+      <c r="B13" s="23">
+        <v>80</v>
+      </c>
+      <c r="C13" s="25">
+        <v>7.82e-05</v>
       </c>
       <c r="D13" s="22">
         <f>E13/60</f>
-        <v>1</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E13" s="22">
-        <v>60</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0.000113</v>
+        <v>50</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.000132</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="20">
-        <v>100</v>
-      </c>
-      <c r="C14" s="23">
-        <v>8.8e-05</v>
+      <c r="B14" s="23">
+        <v>90</v>
+      </c>
+      <c r="C14" s="25">
+        <v>8.36e-05</v>
       </c>
       <c r="D14" s="22">
         <f>E14/60</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="22">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F14" s="24">
-        <v>8.37e-05</v>
+        <v>0.000113</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="20">
-        <v>110</v>
+      <c r="B15" s="23">
+        <v>100</v>
       </c>
       <c r="C15" s="24">
-        <v>9.22e-05</v>
+        <v>8.8e-05</v>
       </c>
       <c r="D15" s="22">
         <f>E15/60</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="22">
-        <v>120</v>
-      </c>
-      <c r="F15" s="24">
-        <v>6.93e-05</v>
+        <v>90</v>
+      </c>
+      <c r="F15" s="25">
+        <v>8.37e-05</v>
       </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="20">
-        <v>120</v>
-      </c>
-      <c r="C16" s="24">
-        <v>9.75e-05</v>
+      <c r="B16" s="23">
+        <v>110</v>
+      </c>
+      <c r="C16" s="25">
+        <v>9.22e-05</v>
       </c>
       <c r="D16" s="22">
         <f>E16/60</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="22">
-        <v>150</v>
-      </c>
-      <c r="F16" s="24">
-        <v>5.63e-05</v>
+        <v>120</v>
+      </c>
+      <c r="F16" s="25">
+        <v>6.93e-05</v>
       </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="20">
-        <v>130</v>
-      </c>
-      <c r="C17" s="23">
-        <v>0.000102</v>
+      <c r="B17" s="23">
+        <v>120</v>
+      </c>
+      <c r="C17" s="25">
+        <v>9.75e-05</v>
       </c>
       <c r="D17" s="22">
         <f>E17/60</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E17" s="22">
-        <v>180</v>
-      </c>
-      <c r="F17" s="24">
-        <v>5.32e-05</v>
+        <v>150</v>
+      </c>
+      <c r="F17" s="25">
+        <v>5.63e-05</v>
       </c>
       <c r="G17" s="19"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="20">
-        <v>140</v>
-      </c>
-      <c r="C18" s="23">
-        <v>0.000106</v>
+      <c r="B18" s="23">
+        <v>130</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0.000102</v>
       </c>
       <c r="D18" s="22">
         <f>E18/60</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="22">
-        <v>210</v>
-      </c>
-      <c r="F18" s="24">
-        <v>5.09e-05</v>
+        <v>180</v>
+      </c>
+      <c r="F18" s="25">
+        <v>5.32e-05</v>
       </c>
       <c r="G18" s="19"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="20">
-        <v>150</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0.00011</v>
+      <c r="B19" s="23">
+        <v>140</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.000106</v>
       </c>
       <c r="D19" s="22">
         <f>E19/60</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E19" s="22">
-        <v>240</v>
-      </c>
-      <c r="F19" s="24">
-        <v>4.91e-05</v>
+        <v>210</v>
+      </c>
+      <c r="F19" s="25">
+        <v>5.09e-05</v>
       </c>
       <c r="G19" s="19"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="20">
-        <v>160</v>
-      </c>
-      <c r="C20" s="23">
-        <v>0.000115</v>
+      <c r="B20" s="23">
+        <v>150</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.00011</v>
       </c>
       <c r="D20" s="22">
         <f>E20/60</f>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="22">
-        <v>270</v>
-      </c>
-      <c r="F20" s="24">
-        <v>4.76e-05</v>
+        <v>240</v>
+      </c>
+      <c r="F20" s="25">
+        <v>4.91e-05</v>
       </c>
       <c r="G20" s="19"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="20">
-        <v>170</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0.00012</v>
+      <c r="B21" s="23">
+        <v>160</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.000115</v>
       </c>
       <c r="D21" s="22">
         <f>E21/60</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E21" s="22">
-        <v>300</v>
-      </c>
-      <c r="F21" s="24">
-        <v>4.64e-05</v>
+        <v>270</v>
+      </c>
+      <c r="F21" s="25">
+        <v>4.76e-05</v>
       </c>
       <c r="G21" s="19"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="20">
-        <v>180</v>
-      </c>
-      <c r="C22" s="23">
-        <v>0.000124</v>
+      <c r="B22" s="23">
+        <v>170</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.00012</v>
       </c>
       <c r="D22" s="22">
         <f>E22/60</f>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="E22" s="22">
-        <v>330</v>
-      </c>
-      <c r="F22" s="24">
-        <v>4.53e-05</v>
+        <v>300</v>
+      </c>
+      <c r="F22" s="25">
+        <v>4.64e-05</v>
       </c>
       <c r="G22" s="19"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="26">
-        <v>210</v>
-      </c>
-      <c r="C23" s="23">
-        <v>0.000136</v>
+      <c r="B23" s="23">
+        <v>180</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.000124</v>
       </c>
       <c r="D23" s="22">
         <f>E23/60</f>
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="E23" s="22">
-        <v>360</v>
-      </c>
-      <c r="F23" s="24">
-        <v>4.43e-05</v>
+        <v>330</v>
+      </c>
+      <c r="F23" s="25">
+        <v>4.53e-05</v>
       </c>
       <c r="G23" s="19"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="27">
-        <f>B24/60</f>
-        <v>4</v>
-      </c>
-      <c r="B24" s="26">
-        <v>240</v>
-      </c>
-      <c r="C24" s="23">
-        <v>0.000148</v>
+      <c r="A24" s="15"/>
+      <c r="B24" s="27">
+        <v>210</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.000136</v>
       </c>
       <c r="D24" s="22">
         <f>E24/60</f>
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="22">
-        <v>390</v>
-      </c>
-      <c r="F24" s="24">
-        <v>4.35e-05</v>
+        <v>360</v>
+      </c>
+      <c r="F24" s="25">
+        <v>4.43e-05</v>
       </c>
       <c r="G24" s="19"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="27">
+      <c r="A25" s="28">
         <f>B25/60</f>
-        <v>4.5</v>
-      </c>
-      <c r="B25" s="26">
-        <v>270</v>
-      </c>
-      <c r="C25" s="23">
-        <v>0.000159</v>
+        <v>4</v>
+      </c>
+      <c r="B25" s="27">
+        <v>240</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.000148</v>
       </c>
       <c r="D25" s="22">
         <f>E25/60</f>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E25" s="22">
-        <v>420</v>
-      </c>
-      <c r="F25" s="24">
-        <v>4.27e-05</v>
+        <v>390</v>
+      </c>
+      <c r="F25" s="25">
+        <v>4.35e-05</v>
       </c>
       <c r="G25" s="19"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="27">
+      <c r="A26" s="28">
         <f>B26/60</f>
-        <v>5</v>
-      </c>
-      <c r="B26" s="26">
-        <v>300</v>
-      </c>
-      <c r="C26" s="23">
-        <v>0.000172</v>
+        <v>4.5</v>
+      </c>
+      <c r="B26" s="27">
+        <v>270</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.000159</v>
       </c>
       <c r="D26" s="22">
         <f>E26/60</f>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="E26" s="22">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="F26" s="25">
-        <v>4.2e-05</v>
+        <v>4.27e-05</v>
       </c>
       <c r="G26" s="19"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="27">
+      <c r="A27" s="28">
         <f>B27/60</f>
-        <v>5.5</v>
-      </c>
-      <c r="B27" s="26">
-        <v>330</v>
-      </c>
-      <c r="C27" s="23">
-        <v>0.000186</v>
+        <v>5</v>
+      </c>
+      <c r="B27" s="27">
+        <v>300</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.000172</v>
       </c>
       <c r="D27" s="22">
         <f>E27/60</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="E27" s="22">
-        <v>480</v>
-      </c>
-      <c r="F27" s="24">
-        <v>4.14e-05</v>
+        <v>450</v>
+      </c>
+      <c r="F27" s="26">
+        <v>4.2e-05</v>
       </c>
       <c r="G27" s="19"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="27">
+      <c r="A28" s="28">
         <f>B28/60</f>
-        <v>6</v>
-      </c>
-      <c r="B28" s="26">
-        <v>360</v>
-      </c>
-      <c r="C28" s="23">
-        <v>0.000196</v>
+        <v>5.5</v>
+      </c>
+      <c r="B28" s="27">
+        <v>330</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.000186</v>
       </c>
       <c r="D28" s="22">
         <f>E28/60</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="E28" s="22">
-        <v>510</v>
-      </c>
-      <c r="F28" s="24">
-        <v>4.09e-05</v>
+        <v>480</v>
+      </c>
+      <c r="F28" s="25">
+        <v>4.14e-05</v>
       </c>
       <c r="G28" s="19"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="27">
+      <c r="A29" s="28">
         <f>B29/60</f>
-        <v>6.5</v>
-      </c>
-      <c r="B29" s="26">
-        <v>390</v>
-      </c>
-      <c r="C29" s="23">
-        <v>0.000206</v>
+        <v>6</v>
+      </c>
+      <c r="B29" s="27">
+        <v>360</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0.000196</v>
       </c>
       <c r="D29" s="22">
         <f>E29/60</f>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E29" s="22">
-        <v>540</v>
-      </c>
-      <c r="F29" s="24">
-        <v>4.03e-05</v>
+        <v>510</v>
+      </c>
+      <c r="F29" s="25">
+        <v>4.09e-05</v>
       </c>
       <c r="G29" s="19"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="27">
+      <c r="A30" s="28">
         <f>B30/60</f>
-        <v>7</v>
-      </c>
-      <c r="B30" s="26">
-        <v>420</v>
-      </c>
-      <c r="C30" s="23">
-        <v>0.000219</v>
+        <v>6.5</v>
+      </c>
+      <c r="B30" s="27">
+        <v>390</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.000206</v>
       </c>
       <c r="D30" s="22">
         <f>E30/60</f>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="E30" s="22">
-        <v>570</v>
-      </c>
-      <c r="F30" s="24">
-        <v>3.98e-05</v>
+        <v>540</v>
+      </c>
+      <c r="F30" s="25">
+        <v>4.03e-05</v>
       </c>
       <c r="G30" s="19"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="27">
+      <c r="A31" s="28">
         <f>B31/60</f>
-        <v>7.5</v>
-      </c>
-      <c r="B31" s="26">
-        <v>450</v>
-      </c>
-      <c r="C31" s="23">
-        <v>0.000229</v>
+        <v>7</v>
+      </c>
+      <c r="B31" s="27">
+        <v>420</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.000219</v>
       </c>
       <c r="D31" s="22">
         <f>E31/60</f>
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="E31" s="22">
-        <v>600</v>
-      </c>
-      <c r="F31" s="24">
-        <v>3.94e-05</v>
+        <v>570</v>
+      </c>
+      <c r="F31" s="25">
+        <v>3.98e-05</v>
       </c>
       <c r="G31" s="19"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="27">
+      <c r="A32" s="28">
         <f>B32/60</f>
-        <v>8</v>
-      </c>
-      <c r="B32" s="26">
-        <v>480</v>
-      </c>
-      <c r="C32" s="23">
-        <v>0.000241</v>
+        <v>7.5</v>
+      </c>
+      <c r="B32" s="27">
+        <v>450</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.000229</v>
       </c>
       <c r="D32" s="22">
         <f>E32/60</f>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="E32" s="22">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="F32" s="25">
-        <v>3.9e-05</v>
+        <v>3.94e-05</v>
       </c>
       <c r="G32" s="19"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="27">
+      <c r="A33" s="28">
         <f>B33/60</f>
-        <v>8.5</v>
-      </c>
-      <c r="B33" s="26">
-        <v>510</v>
-      </c>
-      <c r="C33" s="23">
-        <v>0.000251</v>
+        <v>8</v>
+      </c>
+      <c r="B33" s="27">
+        <v>480</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0.000241</v>
       </c>
       <c r="D33" s="22">
         <f>E33/60</f>
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="E33" s="22">
-        <v>660</v>
-      </c>
-      <c r="F33" s="24">
-        <v>3.86e-05</v>
+        <v>630</v>
+      </c>
+      <c r="F33" s="26">
+        <v>3.9e-05</v>
       </c>
       <c r="G33" s="19"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="27">
+      <c r="A34" s="28">
         <f>B34/60</f>
-        <v>9</v>
-      </c>
-      <c r="B34" s="26">
-        <v>540</v>
-      </c>
-      <c r="C34" s="23">
-        <v>0.000261</v>
+        <v>8.5</v>
+      </c>
+      <c r="B34" s="27">
+        <v>510</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.000251</v>
       </c>
       <c r="D34" s="22">
         <f>E34/60</f>
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="E34" s="22">
-        <v>690</v>
-      </c>
-      <c r="F34" s="24">
-        <v>3.82e-05</v>
+        <v>660</v>
+      </c>
+      <c r="F34" s="25">
+        <v>3.86e-05</v>
       </c>
       <c r="G34" s="19"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="27">
+      <c r="A35" s="28">
         <f>B35/60</f>
-        <v>9.5</v>
-      </c>
-      <c r="B35" s="26">
-        <v>570</v>
-      </c>
-      <c r="C35" s="23">
-        <v>0.000272</v>
+        <v>9</v>
+      </c>
+      <c r="B35" s="27">
+        <v>540</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.000261</v>
       </c>
       <c r="D35" s="22">
         <f>E35/60</f>
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="E35" s="22">
-        <v>720</v>
-      </c>
-      <c r="F35" s="24">
-        <v>3.79e-05</v>
+        <v>690</v>
+      </c>
+      <c r="F35" s="25">
+        <v>3.82e-05</v>
       </c>
       <c r="G35" s="19"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="27">
+      <c r="A36" s="28">
         <f>B36/60</f>
-        <v>10</v>
-      </c>
-      <c r="B36" s="26">
-        <v>600</v>
-      </c>
-      <c r="C36" s="23">
-        <v>0.000283</v>
+        <v>9.5</v>
+      </c>
+      <c r="B36" s="27">
+        <v>570</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.000272</v>
       </c>
       <c r="D36" s="22">
         <f>E36/60</f>
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="E36" s="22">
-        <v>750</v>
-      </c>
-      <c r="F36" s="24">
-        <v>3.75e-05</v>
+        <v>720</v>
+      </c>
+      <c r="F36" s="25">
+        <v>3.79e-05</v>
       </c>
       <c r="G36" s="19"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="19"/>
+      <c r="A37" s="28">
+        <f>B37/60</f>
+        <v>10</v>
+      </c>
+      <c r="B37" s="27">
+        <v>600</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.000283</v>
+      </c>
       <c r="D37" s="22">
         <f>E37/60</f>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="E37" s="22">
-        <v>780</v>
-      </c>
-      <c r="F37" s="24">
-        <v>3.72e-05</v>
+        <v>750</v>
+      </c>
+      <c r="F37" s="25">
+        <v>3.75e-05</v>
       </c>
       <c r="G37" s="19"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="15"/>
-      <c r="B38" s="28"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="19"/>
       <c r="D38" s="22">
         <f>E38/60</f>
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="E38" s="22">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="F38" s="25">
-        <v>3.7e-05</v>
+        <v>3.72e-05</v>
       </c>
       <c r="G38" s="19"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="15"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="19"/>
       <c r="D39" s="22">
         <f>E39/60</f>
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="E39" s="22">
-        <v>840</v>
-      </c>
-      <c r="F39" s="24">
-        <v>3.67e-05</v>
+        <v>810</v>
+      </c>
+      <c r="F39" s="26">
+        <v>3.7e-05</v>
       </c>
       <c r="G39" s="19"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="15"/>
-      <c r="B40" s="28"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="19"/>
       <c r="D40" s="22">
         <f>E40/60</f>
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="E40" s="22">
-        <v>870</v>
-      </c>
-      <c r="F40" s="24">
-        <v>3.64e-05</v>
+        <v>840</v>
+      </c>
+      <c r="F40" s="25">
+        <v>3.67e-05</v>
       </c>
       <c r="G40" s="19"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="15"/>
-      <c r="B41" s="28"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="19"/>
       <c r="D41" s="22">
         <f>E41/60</f>
+        <v>14.5</v>
+      </c>
+      <c r="E41" s="22">
+        <v>870</v>
+      </c>
+      <c r="F41" s="25">
+        <v>3.64e-05</v>
+      </c>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="22">
+        <f>E42/60</f>
         <v>15</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E42" s="22">
         <v>900</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F42" s="25">
         <v>3.62e-05</v>
       </c>
-      <c r="G41" s="19"/>
+      <c r="G42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5677,401 +5728,469 @@
       <c r="C3" t="s" s="31">
         <v>11</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" t="s" s="31">
+        <v>10</v>
+      </c>
       <c r="E3" s="13"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="20">
+      <c r="B4" s="23">
         <v>0</v>
       </c>
       <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
       <c r="E4" s="19"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="20">
+      <c r="B5" s="23">
         <v>0.2</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="22">
+        <v>0.2</v>
+      </c>
       <c r="E5" s="19"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="20">
+      <c r="B6" s="23">
         <v>0.4</v>
       </c>
       <c r="C6" s="22">
         <v>0.09</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="22">
+        <v>0.4</v>
+      </c>
       <c r="E6" s="19"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="20">
+      <c r="B7" s="23">
         <v>0.6</v>
       </c>
       <c r="C7" s="22">
         <v>0.16</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="22">
+        <v>0.6</v>
+      </c>
       <c r="E7" s="19"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>0.8</v>
       </c>
       <c r="C8" s="22">
         <v>0.2</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="22">
+        <v>0.8</v>
+      </c>
       <c r="E8" s="19"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="20">
+      <c r="B9" s="23">
         <v>1</v>
       </c>
       <c r="C9" s="22">
         <v>0.26</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
       <c r="E9" s="19"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <v>1.2</v>
       </c>
       <c r="C10" s="22">
         <v>0.4</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="22">
+        <v>1.2</v>
+      </c>
       <c r="E10" s="19"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="20">
+      <c r="B11" s="23">
         <v>1.4</v>
       </c>
       <c r="C11" s="22">
         <v>0.6</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="22">
+        <v>1.4</v>
+      </c>
       <c r="E11" s="19"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <v>1.6</v>
       </c>
       <c r="C12" s="22">
         <v>1.02</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="22">
+        <v>1.6</v>
+      </c>
       <c r="E12" s="19"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="20">
+      <c r="B13" s="23">
         <v>1.8</v>
       </c>
       <c r="C13" s="22">
         <v>1.19</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="22">
+        <v>1.8</v>
+      </c>
       <c r="E13" s="19"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="20">
+      <c r="B14" s="23">
         <v>2</v>
       </c>
       <c r="C14" s="22">
         <v>1.53</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="22">
+        <v>2</v>
+      </c>
       <c r="E14" s="19"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="20">
+      <c r="B15" s="23">
         <v>2.2</v>
       </c>
       <c r="C15" s="22">
         <v>1.83</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="22">
+        <v>2.2</v>
+      </c>
       <c r="E15" s="19"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="20">
+      <c r="B16" s="23">
         <v>2.4</v>
       </c>
       <c r="C16" s="22">
         <v>2.2</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="22">
+        <v>2.4</v>
+      </c>
       <c r="E16" s="19"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="20">
+      <c r="B17" s="23">
         <v>2.6</v>
       </c>
       <c r="C17" s="22">
         <v>2.32</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="22">
+        <v>2.6</v>
+      </c>
       <c r="E17" s="19"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="20">
+      <c r="B18" s="23">
         <v>2.8</v>
       </c>
       <c r="C18" s="22">
         <v>2.74</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="22">
+        <v>2.8</v>
+      </c>
       <c r="E18" s="19"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="20">
+      <c r="B19" s="23">
         <v>3</v>
       </c>
       <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="22">
+        <v>3</v>
+      </c>
       <c r="E19" s="19"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="20">
+      <c r="B20" s="23">
         <v>3.2</v>
       </c>
       <c r="C20" s="22">
         <v>3.34</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="22">
+        <v>3.2</v>
+      </c>
       <c r="E20" s="19"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="20">
+      <c r="B21" s="23">
         <v>3.4</v>
       </c>
       <c r="C21" s="22">
         <v>3.85</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="22">
+        <v>3.4</v>
+      </c>
       <c r="E21" s="19"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="20">
+      <c r="B22" s="23">
         <v>3.6</v>
       </c>
       <c r="C22" s="22">
         <v>4.22</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="22">
+        <v>3.6</v>
+      </c>
       <c r="E22" s="19"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="20">
+      <c r="B23" s="23">
         <v>3.8</v>
       </c>
       <c r="C23" s="22">
         <v>4.66</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="22">
+        <v>3.8</v>
+      </c>
       <c r="E23" s="19"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="15"/>
-      <c r="B24" s="20">
+      <c r="B24" s="23">
         <v>4</v>
       </c>
       <c r="C24" s="22">
         <v>5.16</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="22">
+        <v>4</v>
+      </c>
       <c r="E24" s="19"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="20">
+      <c r="B25" s="23">
         <v>4.2</v>
       </c>
       <c r="C25" s="22">
         <v>5.46</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="22">
+        <v>4.2</v>
+      </c>
       <c r="E25" s="19"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="20">
+      <c r="B26" s="23">
         <v>4.4</v>
       </c>
       <c r="C26" s="22">
         <v>5.97</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="22">
+        <v>4.4</v>
+      </c>
       <c r="E26" s="19"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="20">
+      <c r="B27" s="23">
         <v>4.6</v>
       </c>
       <c r="C27" s="22">
         <v>6.41</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="22">
+        <v>4.6</v>
+      </c>
       <c r="E27" s="19"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="20">
+      <c r="B28" s="23">
         <v>4.8</v>
       </c>
       <c r="C28" s="22">
         <v>7.1</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="22">
+        <v>4.8</v>
+      </c>
       <c r="E28" s="19"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="20">
+      <c r="B29" s="23">
         <v>5</v>
       </c>
       <c r="C29" s="22">
         <v>7.49</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="22">
+        <v>5</v>
+      </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="20">
+      <c r="B30" s="23">
         <v>5.2</v>
       </c>
       <c r="C30" s="22">
         <v>8.029999999999999</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="22">
+        <v>5.2</v>
+      </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="15"/>
-      <c r="B31" s="20">
+      <c r="B31" s="23">
         <v>5.5</v>
       </c>
       <c r="C31" s="22">
         <v>8.91</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="22">
+        <v>5.5</v>
+      </c>
       <c r="E31" s="19"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="20">
+      <c r="B32" s="23">
         <v>5.6</v>
       </c>
       <c r="C32" s="22">
         <v>8.970000000000001</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="22">
+        <v>5.6</v>
+      </c>
       <c r="E32" s="19"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="15"/>
-      <c r="B33" s="20">
+      <c r="B33" s="23">
         <v>5.8</v>
       </c>
       <c r="C33" s="22">
         <v>9.710000000000001</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="22">
+        <v>5.8</v>
+      </c>
       <c r="E33" s="19"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="15"/>
-      <c r="B34" s="20">
+      <c r="B34" s="23">
         <v>6.1</v>
       </c>
       <c r="C34" s="22">
         <v>10.42</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="22">
+        <v>6.1</v>
+      </c>
       <c r="E34" s="19"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="15"/>
-      <c r="B35" s="20">
+      <c r="B35" s="23">
         <v>6.3</v>
       </c>
       <c r="C35" s="22">
         <v>11.12</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="22">
+        <v>6.3</v>
+      </c>
       <c r="E35" s="19"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="15"/>
-      <c r="B36" s="20">
+      <c r="B36" s="23">
         <v>6.5</v>
       </c>
       <c r="C36" s="22">
         <v>11.72</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="22">
+        <v>6.5</v>
+      </c>
       <c r="E36" s="19"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="15"/>
-      <c r="B37" s="28"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="15"/>
-      <c r="B38" s="28"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="15"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="15"/>
-      <c r="B40" s="28"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="15"/>
-      <c r="B41" s="28"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -6149,7 +6268,7 @@
       <c r="A4" t="s" s="35">
         <v>19</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="23">
         <v>6.5</v>
       </c>
       <c r="C4" s="22">
@@ -6165,7 +6284,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="22">
         <v>2</v>
       </c>
@@ -6179,7 +6298,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="22">
         <v>3</v>
       </c>
@@ -6193,7 +6312,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="22">
         <v>4.3</v>
       </c>
@@ -6207,7 +6326,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="22">
         <v>5</v>
       </c>
@@ -6221,7 +6340,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="22">
         <v>6.1</v>
       </c>
@@ -6235,7 +6354,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="22">
         <v>7.3</v>
       </c>
@@ -6249,7 +6368,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="22">
         <v>8.199999999999999</v>
       </c>
@@ -6263,7 +6382,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="22">
         <v>10</v>
       </c>
@@ -6277,7 +6396,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="22">
         <v>11</v>
       </c>
@@ -6291,7 +6410,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="22">
         <v>12.5</v>
       </c>
@@ -6305,7 +6424,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="22">
         <v>13.5</v>
       </c>
@@ -6319,7 +6438,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="28"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="22">
         <v>14.2</v>
       </c>
@@ -6333,7 +6452,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="22">
         <v>15</v>
       </c>
@@ -6347,7 +6466,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="28"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="22">
         <v>16.6</v>
       </c>
@@ -6361,7 +6480,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="22">
         <v>17.2</v>
       </c>
@@ -6375,7 +6494,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="22">
         <v>18</v>
       </c>
@@ -6389,7 +6508,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="22">
         <v>18.5</v>
       </c>
@@ -6403,7 +6522,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="22">
         <v>20</v>
       </c>
@@ -6417,7 +6536,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="22">
         <v>20.7</v>
       </c>
@@ -6431,7 +6550,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="15"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="22">
         <v>22.7</v>
       </c>
@@ -6445,7 +6564,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="22">
         <v>24.6</v>
       </c>
@@ -6459,7 +6578,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="22">
         <v>26.7</v>
       </c>
@@ -6473,7 +6592,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="22">
         <v>28.6</v>
       </c>
@@ -6487,7 +6606,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="22">
         <v>30.7</v>
       </c>
@@ -6501,7 +6620,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="22">
         <v>32.8</v>
       </c>
@@ -6515,7 +6634,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="28"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="22">
         <v>34.8</v>
       </c>
@@ -6529,7 +6648,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="15"/>
-      <c r="B31" s="28"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="22">
         <v>37.6</v>
       </c>
@@ -6543,7 +6662,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="28"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="22">
         <v>39.4</v>
       </c>
@@ -6557,7 +6676,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="15"/>
-      <c r="B33" s="28"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="22">
         <v>41.2</v>
       </c>
@@ -6571,7 +6690,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="15"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="22">
         <v>44.3</v>
       </c>
@@ -6585,7 +6704,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="15"/>
-      <c r="B35" s="28"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="22">
         <v>46</v>
       </c>
@@ -6599,7 +6718,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="15"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="22">
         <v>48.1</v>
       </c>
@@ -6613,7 +6732,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="15"/>
-      <c r="B37" s="28"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="22">
         <v>50.2</v>
       </c>
@@ -6627,7 +6746,7 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="15"/>
-      <c r="B38" s="28"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="22">
         <v>52.1</v>
       </c>
@@ -6641,7 +6760,7 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="15"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="22">
         <v>54.7</v>
       </c>
@@ -6655,7 +6774,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="15"/>
-      <c r="B40" s="28"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="22">
         <v>55.3</v>
       </c>
@@ -6669,7 +6788,7 @@
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="15"/>
-      <c r="B41" s="28"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="22">
         <v>57.7</v>
       </c>
@@ -6683,7 +6802,7 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="15"/>
-      <c r="B42" s="28"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="22">
         <v>59.4</v>
       </c>
@@ -6697,7 +6816,7 @@
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="15"/>
-      <c r="B43" s="28"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="22">
         <v>60</v>
       </c>
@@ -6711,7 +6830,7 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="15"/>
-      <c r="B44" s="28"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="22">
         <v>65.2</v>
       </c>
@@ -6725,7 +6844,7 @@
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" s="15"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="22">
         <v>70.40000000000001</v>
       </c>
@@ -6739,7 +6858,7 @@
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="15"/>
-      <c r="B46" s="28"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="22">
         <v>75.3</v>
       </c>
@@ -6753,7 +6872,7 @@
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="15"/>
-      <c r="B47" s="28"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="22">
         <v>80.59999999999999</v>
       </c>
@@ -6767,7 +6886,7 @@
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="15"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="22">
         <v>85</v>
       </c>
@@ -6781,7 +6900,7 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="15"/>
-      <c r="B49" s="28"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="22">
         <v>90.5</v>
       </c>
@@ -6795,7 +6914,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="15"/>
-      <c r="B50" s="28"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="22">
         <v>100.5</v>
       </c>
@@ -6809,7 +6928,7 @@
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="15"/>
-      <c r="B51" s="28"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="22">
@@ -6819,7 +6938,7 @@
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="15"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="22">
@@ -6848,7 +6967,7 @@
       <c r="A54" t="s" s="35">
         <v>19</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="23">
         <v>6.1</v>
       </c>
       <c r="C54" s="22">
@@ -6864,7 +6983,7 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" s="15"/>
-      <c r="B55" s="28"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="22">
         <v>2.5</v>
       </c>
@@ -6878,7 +6997,7 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" s="15"/>
-      <c r="B56" s="28"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="22">
         <v>3.1</v>
       </c>
@@ -6892,7 +7011,7 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" s="15"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="22">
         <v>4.2</v>
       </c>
@@ -6906,7 +7025,7 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" s="15"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="22">
         <v>5</v>
       </c>
@@ -6920,7 +7039,7 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" s="15"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="22">
         <v>6.4</v>
       </c>
@@ -6934,7 +7053,7 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" s="15"/>
-      <c r="B60" s="28"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="22">
         <v>7</v>
       </c>
@@ -6948,7 +7067,7 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" s="15"/>
-      <c r="B61" s="28"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="22">
         <v>8</v>
       </c>
@@ -6962,7 +7081,7 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" s="15"/>
-      <c r="B62" s="28"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="22">
         <v>9</v>
       </c>
@@ -6976,7 +7095,7 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" s="15"/>
-      <c r="B63" s="28"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="22">
         <v>10</v>
       </c>
@@ -6990,7 +7109,7 @@
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" s="15"/>
-      <c r="B64" s="28"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="22">
         <v>11</v>
       </c>
@@ -7004,7 +7123,7 @@
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" s="15"/>
-      <c r="B65" s="28"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="22">
         <v>12.3</v>
       </c>
@@ -7018,7 +7137,7 @@
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" s="15"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="22">
         <v>13.8</v>
       </c>
@@ -7032,7 +7151,7 @@
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" s="15"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="22">
         <v>14.2</v>
       </c>
@@ -7046,7 +7165,7 @@
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" s="15"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="22">
         <v>15</v>
       </c>
@@ -7060,7 +7179,7 @@
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" s="15"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="22">
         <v>16</v>
       </c>
@@ -7074,7 +7193,7 @@
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" s="15"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="22">
         <v>16.4</v>
       </c>
@@ -7088,7 +7207,7 @@
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" s="15"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="22">
         <v>17</v>
       </c>
@@ -7102,7 +7221,7 @@
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" s="15"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="22">
         <v>17.1</v>
       </c>
@@ -7116,7 +7235,7 @@
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" s="15"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="22">
         <v>17.2</v>
       </c>
@@ -7130,7 +7249,7 @@
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" s="15"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="22">
         <v>17.5</v>
       </c>
@@ -7144,7 +7263,7 @@
     </row>
     <row r="75" ht="20.05" customHeight="1">
       <c r="A75" s="15"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="22">
         <v>17.7</v>
       </c>
@@ -7158,7 +7277,7 @@
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" s="15"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="22">
         <v>18</v>
       </c>
@@ -7172,7 +7291,7 @@
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" s="15"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="22">
         <v>19.1</v>
       </c>
@@ -7186,7 +7305,7 @@
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" s="15"/>
-      <c r="B78" s="28"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="22">
         <v>21.1</v>
       </c>
@@ -7200,7 +7319,7 @@
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" s="15"/>
-      <c r="B79" s="28"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="22">
         <v>24.2</v>
       </c>
@@ -7214,7 +7333,7 @@
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" s="15"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="22">
         <v>26</v>
       </c>
@@ -7228,7 +7347,7 @@
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" s="15"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="22">
         <v>28.7</v>
       </c>
@@ -7242,7 +7361,7 @@
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" s="15"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="22">
         <v>30.3</v>
       </c>
@@ -7256,7 +7375,7 @@
     </row>
     <row r="83" ht="20.05" customHeight="1">
       <c r="A83" s="15"/>
-      <c r="B83" s="28"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="22">
         <v>32.1</v>
       </c>
@@ -7270,7 +7389,7 @@
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" s="15"/>
-      <c r="B84" s="28"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="22">
         <v>34.1</v>
       </c>
@@ -7284,7 +7403,7 @@
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" s="15"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="22">
         <v>36.8</v>
       </c>
@@ -7298,7 +7417,7 @@
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" s="15"/>
-      <c r="B86" s="28"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="22">
         <v>38.4</v>
       </c>
@@ -7312,7 +7431,7 @@
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" s="15"/>
-      <c r="B87" s="28"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="22">
         <v>40.3</v>
       </c>
@@ -7326,7 +7445,7 @@
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" s="15"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="22">
         <v>43</v>
       </c>
@@ -7340,7 +7459,7 @@
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" s="15"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="22">
         <v>44.7</v>
       </c>
@@ -7354,7 +7473,7 @@
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" s="15"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="22">
         <v>46.2</v>
       </c>
@@ -7368,7 +7487,7 @@
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" s="15"/>
-      <c r="B91" s="28"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="22">
         <v>48.1</v>
       </c>
@@ -7382,7 +7501,7 @@
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" s="15"/>
-      <c r="B92" s="28"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="22">
         <v>50.9</v>
       </c>
@@ -7396,7 +7515,7 @@
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" s="15"/>
-      <c r="B93" s="28"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="22">
         <v>52.3</v>
       </c>
@@ -7410,7 +7529,7 @@
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" s="15"/>
-      <c r="B94" s="28"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="22">
         <v>53.9</v>
       </c>
@@ -7424,7 +7543,7 @@
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" s="15"/>
-      <c r="B95" s="28"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="22">
         <v>56.2</v>
       </c>
@@ -7438,7 +7557,7 @@
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" s="15"/>
-      <c r="B96" s="28"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="22">
         <v>58.2</v>
       </c>
@@ -7452,7 +7571,7 @@
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" s="15"/>
-      <c r="B97" s="28"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="22">
         <v>60.3</v>
       </c>
@@ -7466,7 +7585,7 @@
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" s="15"/>
-      <c r="B98" s="28"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="22">
         <v>65</v>
       </c>
@@ -7480,7 +7599,7 @@
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" s="15"/>
-      <c r="B99" s="28"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="22">
         <v>70.59999999999999</v>
       </c>
@@ -7494,7 +7613,7 @@
     </row>
     <row r="100" ht="20.05" customHeight="1">
       <c r="A100" s="15"/>
-      <c r="B100" s="28"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="22">
         <v>75.40000000000001</v>
       </c>
@@ -7508,7 +7627,7 @@
     </row>
     <row r="101" ht="20.05" customHeight="1">
       <c r="A101" s="15"/>
-      <c r="B101" s="28"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="22">
         <v>80.5</v>
       </c>
@@ -7522,7 +7641,7 @@
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" s="15"/>
-      <c r="B102" s="28"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="22">
         <v>85.59999999999999</v>
       </c>
@@ -7536,7 +7655,7 @@
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" s="15"/>
-      <c r="B103" s="28"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="22">
         <v>90</v>
       </c>
@@ -7550,7 +7669,7 @@
     </row>
     <row r="104" ht="20.05" customHeight="1">
       <c r="A104" s="15"/>
-      <c r="B104" s="28"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="22">
         <v>95.3</v>
       </c>
@@ -7564,7 +7683,7 @@
     </row>
     <row r="105" ht="20.05" customHeight="1">
       <c r="A105" s="15"/>
-      <c r="B105" s="28"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="22">
         <v>100.1</v>
       </c>
@@ -7578,7 +7697,7 @@
     </row>
     <row r="106" ht="20.05" customHeight="1">
       <c r="A106" s="15"/>
-      <c r="B106" s="28"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
       <c r="E106" s="22">
@@ -7607,7 +7726,7 @@
       <c r="A108" t="s" s="35">
         <v>19</v>
       </c>
-      <c r="B108" s="20">
+      <c r="B108" s="23">
         <v>6.8</v>
       </c>
       <c r="C108" s="22">
@@ -7622,7 +7741,7 @@
     </row>
     <row r="109" ht="20.05" customHeight="1">
       <c r="A109" s="15"/>
-      <c r="B109" s="28"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="22">
         <v>2.3</v>
       </c>
@@ -7636,7 +7755,7 @@
     </row>
     <row r="110" ht="20.05" customHeight="1">
       <c r="A110" s="15"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="22">
         <v>3</v>
       </c>
@@ -7650,7 +7769,7 @@
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" s="15"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="22">
         <v>4.2</v>
       </c>
@@ -7664,7 +7783,7 @@
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" s="15"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="22">
         <v>5.4</v>
       </c>
@@ -7678,7 +7797,7 @@
     </row>
     <row r="113" ht="20.05" customHeight="1">
       <c r="A113" s="15"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="22">
         <v>6</v>
       </c>
@@ -7692,7 +7811,7 @@
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" s="15"/>
-      <c r="B114" s="28"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="22">
         <v>7.1</v>
       </c>
@@ -7706,7 +7825,7 @@
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" s="15"/>
-      <c r="B115" s="28"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="22">
         <v>8</v>
       </c>
@@ -7720,7 +7839,7 @@
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" s="15"/>
-      <c r="B116" s="28"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="22">
         <v>9.9</v>
       </c>
@@ -7734,7 +7853,7 @@
     </row>
     <row r="117" ht="20.05" customHeight="1">
       <c r="A117" s="15"/>
-      <c r="B117" s="28"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="22">
         <v>11.1</v>
       </c>
@@ -7748,7 +7867,7 @@
     </row>
     <row r="118" ht="20.05" customHeight="1">
       <c r="A118" s="15"/>
-      <c r="B118" s="28"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="22">
         <v>12.4</v>
       </c>
@@ -7762,7 +7881,7 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" s="15"/>
-      <c r="B119" s="28"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="22">
         <v>13.2</v>
       </c>
@@ -7776,7 +7895,7 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" s="15"/>
-      <c r="B120" s="28"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="22">
         <v>14.2</v>
       </c>
@@ -7790,7 +7909,7 @@
     </row>
     <row r="121" ht="20.05" customHeight="1">
       <c r="A121" s="15"/>
-      <c r="B121" s="28"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="22">
         <v>15.3</v>
       </c>
@@ -7804,7 +7923,7 @@
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" s="15"/>
-      <c r="B122" s="28"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="22">
         <v>16.1</v>
       </c>
@@ -7818,7 +7937,7 @@
     </row>
     <row r="123" ht="20.05" customHeight="1">
       <c r="A123" s="15"/>
-      <c r="B123" s="28"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="22">
         <v>17.1</v>
       </c>
@@ -7832,7 +7951,7 @@
     </row>
     <row r="124" ht="20.05" customHeight="1">
       <c r="A124" s="15"/>
-      <c r="B124" s="20">
+      <c r="B124" s="23">
         <v>2</v>
       </c>
       <c r="C124" s="22">
@@ -7848,7 +7967,7 @@
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" s="15"/>
-      <c r="B125" s="28"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="22">
         <v>18.9</v>
       </c>
@@ -7862,7 +7981,7 @@
     </row>
     <row r="126" ht="20.05" customHeight="1">
       <c r="A126" s="15"/>
-      <c r="B126" s="28"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="22">
         <v>19.5</v>
       </c>
@@ -7876,7 +7995,7 @@
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" s="15"/>
-      <c r="B127" s="28"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="22">
         <v>20</v>
       </c>
@@ -7890,7 +8009,7 @@
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" s="15"/>
-      <c r="B128" s="28"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="22">
         <v>20.7</v>
       </c>
@@ -7904,7 +8023,7 @@
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" s="15"/>
-      <c r="B129" s="28"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="22">
         <v>21</v>
       </c>
@@ -7918,7 +8037,7 @@
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" s="15"/>
-      <c r="B130" s="28"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="22">
         <v>21.5</v>
       </c>
@@ -7932,7 +8051,7 @@
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" s="15"/>
-      <c r="B131" s="28"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="22">
         <v>22</v>
       </c>
@@ -7946,7 +8065,7 @@
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" s="15"/>
-      <c r="B132" s="28"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="22">
         <v>22.5</v>
       </c>
@@ -7960,7 +8079,7 @@
     </row>
     <row r="133" ht="20.05" customHeight="1">
       <c r="A133" s="15"/>
-      <c r="B133" s="28"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="22">
         <v>23</v>
       </c>
@@ -7974,7 +8093,7 @@
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" s="15"/>
-      <c r="B134" s="28"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="22">
         <v>23.8</v>
       </c>
@@ -7988,7 +8107,7 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" s="15"/>
-      <c r="B135" s="28"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="22">
         <v>24</v>
       </c>
@@ -8002,7 +8121,7 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" s="15"/>
-      <c r="B136" s="28"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="22">
         <v>24.5</v>
       </c>
@@ -8016,7 +8135,7 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" s="15"/>
-      <c r="B137" s="28"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="22">
         <v>25.3</v>
       </c>
@@ -8030,7 +8149,7 @@
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" s="15"/>
-      <c r="B138" s="28"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="22">
         <v>26</v>
       </c>
@@ -8044,7 +8163,7 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" s="15"/>
-      <c r="B139" s="28"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="22">
         <v>27</v>
       </c>
@@ -8058,7 +8177,7 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" s="15"/>
-      <c r="B140" s="28"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="22">
         <v>27.7</v>
       </c>
@@ -8072,7 +8191,7 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" s="15"/>
-      <c r="B141" s="28"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="22">
         <v>28</v>
       </c>
@@ -8086,7 +8205,7 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" s="15"/>
-      <c r="B142" s="28"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="22">
         <v>29.1</v>
       </c>
@@ -8100,7 +8219,7 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" s="15"/>
-      <c r="B143" s="28"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="22">
         <v>29.5</v>
       </c>
@@ -8114,7 +8233,7 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" s="15"/>
-      <c r="B144" s="28"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="22">
         <v>30.5</v>
       </c>
@@ -8128,7 +8247,7 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" s="15"/>
-      <c r="B145" s="28"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="22">
         <v>31</v>
       </c>
@@ -8142,7 +8261,7 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" s="15"/>
-      <c r="B146" s="28"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="22">
         <v>33.1</v>
       </c>
@@ -8156,7 +8275,7 @@
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" s="15"/>
-      <c r="B147" s="28"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="22">
         <v>35.2</v>
       </c>
@@ -8170,7 +8289,7 @@
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" s="15"/>
-      <c r="B148" s="28"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="22">
         <v>37.2</v>
       </c>
@@ -8184,7 +8303,7 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" s="15"/>
-      <c r="B149" s="28"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="22">
         <v>39.3</v>
       </c>
@@ -8198,7 +8317,7 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" s="15"/>
-      <c r="B150" s="28"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="22">
         <v>43</v>
       </c>
@@ -8212,7 +8331,7 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" s="15"/>
-      <c r="B151" s="28"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="22">
         <v>45</v>
       </c>
@@ -8226,7 +8345,7 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" s="15"/>
-      <c r="B152" s="20">
+      <c r="B152" s="23">
         <v>20</v>
       </c>
       <c r="C152" s="22">
@@ -8242,7 +8361,7 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" s="15"/>
-      <c r="B153" s="28"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="22">
         <v>49.2</v>
       </c>
@@ -8256,7 +8375,7 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" s="15"/>
-      <c r="B154" s="28"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="22">
         <v>51.1</v>
       </c>
@@ -8270,7 +8389,7 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" s="15"/>
-      <c r="B155" s="28"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="22">
         <v>53.4</v>
       </c>
@@ -8284,7 +8403,7 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" s="15"/>
-      <c r="B156" s="28"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="22">
         <v>55.3</v>
       </c>
@@ -8298,7 +8417,7 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" s="15"/>
-      <c r="B157" s="28"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="22">
         <v>57.5</v>
       </c>
@@ -8312,7 +8431,7 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" s="15"/>
-      <c r="B158" s="28"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="22">
         <v>59.1</v>
       </c>
@@ -8326,7 +8445,7 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" s="15"/>
-      <c r="B159" s="28"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="22">
         <v>64.09999999999999</v>
       </c>
@@ -8340,7 +8459,7 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" s="15"/>
-      <c r="B160" s="28"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="22">
         <v>69.09999999999999</v>
       </c>
@@ -8354,7 +8473,7 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" s="15"/>
-      <c r="B161" s="28"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="22">
         <v>74</v>
       </c>
@@ -8368,7 +8487,7 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" s="15"/>
-      <c r="B162" s="28"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="22">
         <v>79.40000000000001</v>
       </c>
@@ -8382,7 +8501,7 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" s="15"/>
-      <c r="B163" s="28"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="22">
         <v>84.5</v>
       </c>
@@ -8396,7 +8515,7 @@
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" s="15"/>
-      <c r="B164" s="28"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="22">
         <v>89.3</v>
       </c>
@@ -8410,7 +8529,7 @@
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" s="15"/>
-      <c r="B165" s="28"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="22">
         <v>94.3</v>
       </c>
@@ -8424,7 +8543,7 @@
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" s="15"/>
-      <c r="B166" s="28"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="22">
         <v>100.3</v>
       </c>
@@ -8438,7 +8557,7 @@
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" s="15"/>
-      <c r="B167" s="28"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
       <c r="E167" s="22">
@@ -8448,7 +8567,7 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" s="15"/>
-      <c r="B168" s="28"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="19"/>
       <c r="D168" s="19"/>
       <c r="E168" s="22">
@@ -8477,7 +8596,7 @@
       <c r="A170" t="s" s="35">
         <v>19</v>
       </c>
-      <c r="B170" s="20">
+      <c r="B170" s="23">
         <v>6.5</v>
       </c>
       <c r="C170" s="22">
@@ -8493,7 +8612,7 @@
     </row>
     <row r="171" ht="20.05" customHeight="1">
       <c r="A171" s="15"/>
-      <c r="B171" s="28"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="22">
         <v>1.6</v>
       </c>
@@ -8507,7 +8626,7 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" s="15"/>
-      <c r="B172" s="28"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="22">
         <v>2.9</v>
       </c>
@@ -8521,7 +8640,7 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" s="15"/>
-      <c r="B173" s="28"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="22">
         <v>3.7</v>
       </c>
@@ -8535,7 +8654,7 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" s="15"/>
-      <c r="B174" s="28"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="22">
         <v>4.7</v>
       </c>
@@ -8549,7 +8668,7 @@
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" s="15"/>
-      <c r="B175" s="28"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="22">
         <v>5.6</v>
       </c>
@@ -8563,7 +8682,7 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" s="15"/>
-      <c r="B176" s="28"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="22">
         <v>6.1</v>
       </c>
@@ -8577,7 +8696,7 @@
     </row>
     <row r="177" ht="20.05" customHeight="1">
       <c r="A177" s="15"/>
-      <c r="B177" s="28"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="22">
         <v>6.6</v>
       </c>
@@ -8591,7 +8710,7 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" s="15"/>
-      <c r="B178" s="28"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="22">
         <v>8.4</v>
       </c>
@@ -8605,7 +8724,7 @@
     </row>
     <row r="179" ht="20.05" customHeight="1">
       <c r="A179" s="15"/>
-      <c r="B179" s="28"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="22">
         <v>9.4</v>
       </c>
@@ -8619,7 +8738,7 @@
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" s="15"/>
-      <c r="B180" s="28"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="22">
         <v>10.2</v>
       </c>
@@ -8633,7 +8752,7 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" s="15"/>
-      <c r="B181" s="28"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="22">
         <v>11</v>
       </c>
@@ -8647,7 +8766,7 @@
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" s="15"/>
-      <c r="B182" s="28"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="22">
         <v>12.1</v>
       </c>
@@ -8661,7 +8780,7 @@
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" s="15"/>
-      <c r="B183" s="28"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="22">
         <v>13</v>
       </c>
@@ -8675,7 +8794,7 @@
     </row>
     <row r="184" ht="20.05" customHeight="1">
       <c r="A184" s="15"/>
-      <c r="B184" s="28"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="22">
         <v>14.1</v>
       </c>
@@ -8689,7 +8808,7 @@
     </row>
     <row r="185" ht="20.05" customHeight="1">
       <c r="A185" s="15"/>
-      <c r="B185" s="28"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="22">
         <v>15</v>
       </c>
@@ -8703,7 +8822,7 @@
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" s="15"/>
-      <c r="B186" s="28"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="22">
         <v>16.1</v>
       </c>
@@ -8717,7 +8836,7 @@
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" s="15"/>
-      <c r="B187" s="28"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="22">
         <v>17.1</v>
       </c>
@@ -8731,7 +8850,7 @@
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" s="15"/>
-      <c r="B188" s="28"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="22">
         <v>17.5</v>
       </c>
@@ -8745,7 +8864,7 @@
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" s="15"/>
-      <c r="B189" s="28"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="22">
         <v>18</v>
       </c>
@@ -8759,7 +8878,7 @@
     </row>
     <row r="190" ht="20.05" customHeight="1">
       <c r="A190" s="15"/>
-      <c r="B190" s="28"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="22">
         <v>18.5</v>
       </c>
@@ -8773,7 +8892,7 @@
     </row>
     <row r="191" ht="20.05" customHeight="1">
       <c r="A191" s="15"/>
-      <c r="B191" s="28"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="22">
         <v>19.1</v>
       </c>
@@ -8787,7 +8906,7 @@
     </row>
     <row r="192" ht="20.05" customHeight="1">
       <c r="A192" s="15"/>
-      <c r="B192" s="28"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="22">
         <v>19.5</v>
       </c>
@@ -8801,7 +8920,7 @@
     </row>
     <row r="193" ht="20.05" customHeight="1">
       <c r="A193" s="15"/>
-      <c r="B193" s="28"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="22">
         <v>20.02</v>
       </c>
@@ -8815,7 +8934,7 @@
     </row>
     <row r="194" ht="20.05" customHeight="1">
       <c r="A194" s="15"/>
-      <c r="B194" s="28"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="22">
         <v>22.3</v>
       </c>
@@ -8829,7 +8948,7 @@
     </row>
     <row r="195" ht="20.05" customHeight="1">
       <c r="A195" s="15"/>
-      <c r="B195" s="28"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="22">
         <v>24.1</v>
       </c>
@@ -8843,7 +8962,7 @@
     </row>
     <row r="196" ht="20.05" customHeight="1">
       <c r="A196" s="15"/>
-      <c r="B196" s="28"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="22">
         <v>26</v>
       </c>
@@ -8857,7 +8976,7 @@
     </row>
     <row r="197" ht="20.05" customHeight="1">
       <c r="A197" s="15"/>
-      <c r="B197" s="28"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="22">
         <v>28</v>
       </c>
@@ -8871,7 +8990,7 @@
     </row>
     <row r="198" ht="20.05" customHeight="1">
       <c r="A198" s="15"/>
-      <c r="B198" s="28"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="22">
         <v>30.2</v>
       </c>
@@ -8885,7 +9004,7 @@
     </row>
     <row r="199" ht="20.05" customHeight="1">
       <c r="A199" s="15"/>
-      <c r="B199" s="28"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="22">
         <v>32.3</v>
       </c>
@@ -8899,7 +9018,7 @@
     </row>
     <row r="200" ht="20.05" customHeight="1">
       <c r="A200" s="15"/>
-      <c r="B200" s="28"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="22">
         <v>34.5</v>
       </c>
@@ -8913,7 +9032,7 @@
     </row>
     <row r="201" ht="20.05" customHeight="1">
       <c r="A201" s="15"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="22">
         <v>36.2</v>
       </c>
@@ -8927,7 +9046,7 @@
     </row>
     <row r="202" ht="20.05" customHeight="1">
       <c r="A202" s="15"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="22">
         <v>38.3</v>
       </c>
@@ -8941,7 +9060,7 @@
     </row>
     <row r="203" ht="20.05" customHeight="1">
       <c r="A203" s="15"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="22">
         <v>40.6</v>
       </c>
@@ -8955,7 +9074,7 @@
     </row>
     <row r="204" ht="20.05" customHeight="1">
       <c r="A204" s="15"/>
-      <c r="B204" s="28"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="22">
         <v>42.4</v>
       </c>
@@ -8969,7 +9088,7 @@
     </row>
     <row r="205" ht="20.05" customHeight="1">
       <c r="A205" s="15"/>
-      <c r="B205" s="28"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="22">
         <v>44.3</v>
       </c>
@@ -8983,7 +9102,7 @@
     </row>
     <row r="206" ht="20.05" customHeight="1">
       <c r="A206" s="15"/>
-      <c r="B206" s="28"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="22">
         <v>46.4</v>
       </c>
@@ -8997,7 +9116,7 @@
     </row>
     <row r="207" ht="20.05" customHeight="1">
       <c r="A207" s="15"/>
-      <c r="B207" s="28"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="22">
         <v>48.4</v>
       </c>
@@ -9011,7 +9130,7 @@
     </row>
     <row r="208" ht="20.05" customHeight="1">
       <c r="A208" s="15"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="22">
         <v>50.1</v>
       </c>
@@ -9025,7 +9144,7 @@
     </row>
     <row r="209" ht="20.05" customHeight="1">
       <c r="A209" s="15"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="22">
         <v>52.4</v>
       </c>
@@ -9039,7 +9158,7 @@
     </row>
     <row r="210" ht="20.05" customHeight="1">
       <c r="A210" s="15"/>
-      <c r="B210" s="28"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="22">
         <v>54.5</v>
       </c>
@@ -9053,7 +9172,7 @@
     </row>
     <row r="211" ht="20.05" customHeight="1">
       <c r="A211" s="15"/>
-      <c r="B211" s="28"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="22">
         <v>56.3</v>
       </c>
@@ -9067,7 +9186,7 @@
     </row>
     <row r="212" ht="20.05" customHeight="1">
       <c r="A212" s="15"/>
-      <c r="B212" s="28"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="22">
         <v>58.1</v>
       </c>
@@ -9081,7 +9200,7 @@
     </row>
     <row r="213" ht="20.05" customHeight="1">
       <c r="A213" s="15"/>
-      <c r="B213" s="28"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="22">
         <v>60.5</v>
       </c>
@@ -9095,7 +9214,7 @@
     </row>
     <row r="214" ht="20.05" customHeight="1">
       <c r="A214" s="15"/>
-      <c r="B214" s="28"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="22">
         <v>65.5</v>
       </c>
@@ -9109,7 +9228,7 @@
     </row>
     <row r="215" ht="20.05" customHeight="1">
       <c r="A215" s="15"/>
-      <c r="B215" s="28"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="22">
         <v>70</v>
       </c>
@@ -9123,7 +9242,7 @@
     </row>
     <row r="216" ht="20.05" customHeight="1">
       <c r="A216" s="15"/>
-      <c r="B216" s="28"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="19"/>
       <c r="D216" s="19"/>
       <c r="E216" s="22">
@@ -9133,7 +9252,7 @@
     </row>
     <row r="217" ht="20.05" customHeight="1">
       <c r="A217" s="15"/>
-      <c r="B217" s="28"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="19"/>
       <c r="D217" s="19"/>
       <c r="E217" s="22">
@@ -9143,7 +9262,7 @@
     </row>
     <row r="218" ht="20.05" customHeight="1">
       <c r="A218" s="15"/>
-      <c r="B218" s="28"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="19"/>
       <c r="D218" s="19"/>
       <c r="E218" s="22">
@@ -9153,7 +9272,7 @@
     </row>
     <row r="219" ht="20.05" customHeight="1">
       <c r="A219" s="15"/>
-      <c r="B219" s="28"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="19"/>
       <c r="D219" s="19"/>
       <c r="E219" s="22">
@@ -9182,7 +9301,7 @@
       <c r="A221" t="s" s="35">
         <v>19</v>
       </c>
-      <c r="B221" s="20">
+      <c r="B221" s="23">
         <v>6.5</v>
       </c>
       <c r="C221" s="22">
@@ -9198,7 +9317,7 @@
     </row>
     <row r="222" ht="20.05" customHeight="1">
       <c r="A222" s="15"/>
-      <c r="B222" s="28"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="22">
         <v>1</v>
       </c>
@@ -9212,7 +9331,7 @@
     </row>
     <row r="223" ht="20.05" customHeight="1">
       <c r="A223" s="15"/>
-      <c r="B223" s="28"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="22">
         <v>3</v>
       </c>
@@ -9226,7 +9345,7 @@
     </row>
     <row r="224" ht="20.05" customHeight="1">
       <c r="A224" s="15"/>
-      <c r="B224" s="28"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="22">
         <v>3.9</v>
       </c>
@@ -9240,7 +9359,7 @@
     </row>
     <row r="225" ht="20.05" customHeight="1">
       <c r="A225" s="15"/>
-      <c r="B225" s="28"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="22">
         <v>5</v>
       </c>
@@ -9254,7 +9373,7 @@
     </row>
     <row r="226" ht="20.05" customHeight="1">
       <c r="A226" s="15"/>
-      <c r="B226" s="28"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="22">
         <v>6</v>
       </c>
@@ -9268,7 +9387,7 @@
     </row>
     <row r="227" ht="20.05" customHeight="1">
       <c r="A227" s="15"/>
-      <c r="B227" s="28"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="22">
         <v>7</v>
       </c>
@@ -9282,7 +9401,7 @@
     </row>
     <row r="228" ht="20.05" customHeight="1">
       <c r="A228" s="15"/>
-      <c r="B228" s="28"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="22">
         <v>8</v>
       </c>
@@ -9296,7 +9415,7 @@
     </row>
     <row r="229" ht="20.05" customHeight="1">
       <c r="A229" s="15"/>
-      <c r="B229" s="28"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="22">
         <v>9</v>
       </c>
@@ -9310,7 +9429,7 @@
     </row>
     <row r="230" ht="20.05" customHeight="1">
       <c r="A230" s="15"/>
-      <c r="B230" s="28"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="22">
         <v>10</v>
       </c>
@@ -9322,7 +9441,7 @@
     </row>
     <row r="231" ht="20.05" customHeight="1">
       <c r="A231" s="15"/>
-      <c r="B231" s="28"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="22">
         <v>11</v>
       </c>
@@ -9334,7 +9453,7 @@
     </row>
     <row r="232" ht="20.05" customHeight="1">
       <c r="A232" s="15"/>
-      <c r="B232" s="28"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="22">
         <v>12.4</v>
       </c>
@@ -9346,7 +9465,7 @@
     </row>
     <row r="233" ht="20.05" customHeight="1">
       <c r="A233" s="15"/>
-      <c r="B233" s="28"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="22">
         <v>13.1</v>
       </c>
@@ -9360,7 +9479,7 @@
     </row>
     <row r="234" ht="20.05" customHeight="1">
       <c r="A234" s="15"/>
-      <c r="B234" s="28"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="22">
         <v>14</v>
       </c>
@@ -9374,7 +9493,7 @@
     </row>
     <row r="235" ht="20.05" customHeight="1">
       <c r="A235" s="15"/>
-      <c r="B235" s="28"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="22">
         <v>15</v>
       </c>
@@ -9388,7 +9507,7 @@
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" s="15"/>
-      <c r="B236" s="28"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="22">
         <v>16</v>
       </c>
@@ -9402,7 +9521,7 @@
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" s="15"/>
-      <c r="B237" s="28"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="22">
         <v>17.2</v>
       </c>
@@ -9416,7 +9535,7 @@
     </row>
     <row r="238" ht="20.05" customHeight="1">
       <c r="A238" s="15"/>
-      <c r="B238" s="28"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="22">
         <v>17.9</v>
       </c>
@@ -9430,7 +9549,7 @@
     </row>
     <row r="239" ht="20.05" customHeight="1">
       <c r="A239" s="15"/>
-      <c r="B239" s="28"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="22">
         <v>20.1</v>
       </c>
@@ -9444,7 +9563,7 @@
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" s="15"/>
-      <c r="B240" s="28"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="22">
         <v>21.1</v>
       </c>
@@ -9474,7 +9593,7 @@
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" s="15"/>
-      <c r="B242" s="28"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="22">
         <v>24.8</v>
       </c>
@@ -9488,7 +9607,7 @@
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" s="15"/>
-      <c r="B243" s="28"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="22">
         <v>26.7</v>
       </c>
@@ -9502,7 +9621,7 @@
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" s="15"/>
-      <c r="B244" s="28"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="22">
         <v>32.2</v>
       </c>
@@ -9516,7 +9635,7 @@
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" s="15"/>
-      <c r="B245" s="28"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="22">
         <v>34.2</v>
       </c>
@@ -9530,7 +9649,7 @@
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" s="15"/>
-      <c r="B246" s="28"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="22">
         <v>36.4</v>
       </c>
@@ -9544,7 +9663,7 @@
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" s="15"/>
-      <c r="B247" s="28"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="22">
         <v>38</v>
       </c>
@@ -9558,7 +9677,7 @@
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" s="15"/>
-      <c r="B248" s="28"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="22">
         <v>40.7</v>
       </c>
@@ -9572,7 +9691,7 @@
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" s="15"/>
-      <c r="B249" s="28"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="22">
         <v>43.4</v>
       </c>
@@ -9586,7 +9705,7 @@
     </row>
     <row r="250" ht="20.05" customHeight="1">
       <c r="A250" s="15"/>
-      <c r="B250" s="28"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="22">
         <v>44.5</v>
       </c>
@@ -9600,7 +9719,7 @@
     </row>
     <row r="251" ht="20.05" customHeight="1">
       <c r="A251" s="15"/>
-      <c r="B251" s="28"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="22">
         <v>46.3</v>
       </c>
@@ -9614,7 +9733,7 @@
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" s="15"/>
-      <c r="B252" s="28"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="22">
         <v>48.4</v>
       </c>
@@ -9628,7 +9747,7 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" s="15"/>
-      <c r="B253" s="28"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="22">
         <v>50</v>
       </c>
@@ -9642,7 +9761,7 @@
     </row>
     <row r="254" ht="20.05" customHeight="1">
       <c r="A254" s="15"/>
-      <c r="B254" s="28"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="22">
         <v>52.1</v>
       </c>
@@ -9656,7 +9775,7 @@
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" s="15"/>
-      <c r="B255" s="28"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="22">
         <v>53.2</v>
       </c>
@@ -9670,7 +9789,7 @@
     </row>
     <row r="256" ht="20.05" customHeight="1">
       <c r="A256" s="15"/>
-      <c r="B256" s="28"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="22">
         <v>55.5</v>
       </c>
@@ -9684,7 +9803,7 @@
     </row>
     <row r="257" ht="20.05" customHeight="1">
       <c r="A257" s="15"/>
-      <c r="B257" s="28"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="22">
         <v>56.8</v>
       </c>
@@ -9698,7 +9817,7 @@
     </row>
     <row r="258" ht="20.05" customHeight="1">
       <c r="A258" s="15"/>
-      <c r="B258" s="28"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="22">
         <v>60.3</v>
       </c>
@@ -9712,7 +9831,7 @@
     </row>
     <row r="259" ht="20.05" customHeight="1">
       <c r="A259" s="15"/>
-      <c r="B259" s="28"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="22">
         <v>66.3</v>
       </c>
@@ -9726,7 +9845,7 @@
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" s="15"/>
-      <c r="B260" s="20">
+      <c r="B260" s="23">
         <v>20</v>
       </c>
       <c r="C260" s="22">
@@ -9742,7 +9861,7 @@
     </row>
     <row r="261" ht="20.05" customHeight="1">
       <c r="A261" s="15"/>
-      <c r="B261" s="28"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="22">
         <v>75.7</v>
       </c>
@@ -9756,7 +9875,7 @@
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" s="15"/>
-      <c r="B262" s="28"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="22">
         <v>79</v>
       </c>
@@ -9770,7 +9889,7 @@
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" s="15"/>
-      <c r="B263" s="28"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="19"/>
       <c r="D263" s="19"/>
       <c r="E263" s="22">
@@ -9780,7 +9899,7 @@
     </row>
     <row r="264" ht="20.05" customHeight="1">
       <c r="A264" s="15"/>
-      <c r="B264" s="28"/>
+      <c r="B264" s="20"/>
       <c r="C264" s="19"/>
       <c r="D264" s="19"/>
       <c r="E264" s="22">
@@ -9790,378 +9909,378 @@
     </row>
     <row r="265" ht="20.05" customHeight="1">
       <c r="A265" s="15"/>
-      <c r="B265" s="28"/>
+      <c r="B265" s="20"/>
       <c r="C265" s="19"/>
       <c r="D265" s="19"/>
       <c r="E265" s="19"/>
     </row>
     <row r="266" ht="20.05" customHeight="1">
       <c r="A266" s="15"/>
-      <c r="B266" s="28"/>
+      <c r="B266" s="20"/>
       <c r="C266" s="19"/>
       <c r="D266" s="19"/>
       <c r="E266" s="19"/>
     </row>
     <row r="267" ht="20.05" customHeight="1">
       <c r="A267" s="15"/>
-      <c r="B267" s="28"/>
+      <c r="B267" s="20"/>
       <c r="C267" s="19"/>
       <c r="D267" s="19"/>
       <c r="E267" s="19"/>
     </row>
     <row r="268" ht="20.05" customHeight="1">
       <c r="A268" s="15"/>
-      <c r="B268" s="28"/>
+      <c r="B268" s="20"/>
       <c r="C268" s="19"/>
       <c r="D268" s="19"/>
       <c r="E268" s="19"/>
     </row>
     <row r="269" ht="20.05" customHeight="1">
       <c r="A269" s="15"/>
-      <c r="B269" s="28"/>
+      <c r="B269" s="20"/>
       <c r="C269" s="19"/>
       <c r="D269" s="19"/>
       <c r="E269" s="19"/>
     </row>
     <row r="270" ht="20.05" customHeight="1">
       <c r="A270" s="15"/>
-      <c r="B270" s="28"/>
+      <c r="B270" s="20"/>
       <c r="C270" s="19"/>
       <c r="D270" s="19"/>
       <c r="E270" s="19"/>
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" s="15"/>
-      <c r="B271" s="28"/>
+      <c r="B271" s="20"/>
       <c r="C271" s="19"/>
       <c r="D271" s="19"/>
       <c r="E271" s="19"/>
     </row>
     <row r="272" ht="20.05" customHeight="1">
       <c r="A272" s="15"/>
-      <c r="B272" s="28"/>
+      <c r="B272" s="20"/>
       <c r="C272" s="19"/>
       <c r="D272" s="19"/>
       <c r="E272" s="19"/>
     </row>
     <row r="273" ht="20.05" customHeight="1">
       <c r="A273" s="15"/>
-      <c r="B273" s="28"/>
+      <c r="B273" s="20"/>
       <c r="C273" s="19"/>
       <c r="D273" s="19"/>
       <c r="E273" s="19"/>
     </row>
     <row r="274" ht="20.05" customHeight="1">
       <c r="A274" s="15"/>
-      <c r="B274" s="28"/>
+      <c r="B274" s="20"/>
       <c r="C274" s="19"/>
       <c r="D274" s="19"/>
       <c r="E274" s="19"/>
     </row>
     <row r="275" ht="20.05" customHeight="1">
       <c r="A275" s="15"/>
-      <c r="B275" s="28"/>
+      <c r="B275" s="20"/>
       <c r="C275" s="19"/>
       <c r="D275" s="19"/>
       <c r="E275" s="19"/>
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" s="15"/>
-      <c r="B276" s="28"/>
+      <c r="B276" s="20"/>
       <c r="C276" s="19"/>
       <c r="D276" s="19"/>
       <c r="E276" s="19"/>
     </row>
     <row r="277" ht="20.05" customHeight="1">
       <c r="A277" s="15"/>
-      <c r="B277" s="28"/>
+      <c r="B277" s="20"/>
       <c r="C277" s="19"/>
       <c r="D277" s="19"/>
       <c r="E277" s="19"/>
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" s="15"/>
-      <c r="B278" s="28"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="19"/>
       <c r="D278" s="19"/>
       <c r="E278" s="19"/>
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" s="15"/>
-      <c r="B279" s="28"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="19"/>
       <c r="D279" s="19"/>
       <c r="E279" s="19"/>
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" s="15"/>
-      <c r="B280" s="28"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="19"/>
       <c r="D280" s="19"/>
       <c r="E280" s="19"/>
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" s="15"/>
-      <c r="B281" s="28"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="19"/>
       <c r="D281" s="19"/>
       <c r="E281" s="19"/>
     </row>
     <row r="282" ht="20.05" customHeight="1">
       <c r="A282" s="15"/>
-      <c r="B282" s="28"/>
+      <c r="B282" s="20"/>
       <c r="C282" s="19"/>
       <c r="D282" s="19"/>
       <c r="E282" s="19"/>
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" s="15"/>
-      <c r="B283" s="28"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="19"/>
       <c r="D283" s="19"/>
       <c r="E283" s="19"/>
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" s="15"/>
-      <c r="B284" s="28"/>
+      <c r="B284" s="20"/>
       <c r="C284" s="19"/>
       <c r="D284" s="19"/>
       <c r="E284" s="19"/>
     </row>
     <row r="285" ht="20.05" customHeight="1">
       <c r="A285" s="15"/>
-      <c r="B285" s="28"/>
+      <c r="B285" s="20"/>
       <c r="C285" s="19"/>
       <c r="D285" s="19"/>
       <c r="E285" s="19"/>
     </row>
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" s="15"/>
-      <c r="B286" s="28"/>
+      <c r="B286" s="20"/>
       <c r="C286" s="19"/>
       <c r="D286" s="19"/>
       <c r="E286" s="19"/>
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" s="15"/>
-      <c r="B287" s="28"/>
+      <c r="B287" s="20"/>
       <c r="C287" s="19"/>
       <c r="D287" s="19"/>
       <c r="E287" s="19"/>
     </row>
     <row r="288" ht="20.05" customHeight="1">
       <c r="A288" s="15"/>
-      <c r="B288" s="28"/>
+      <c r="B288" s="20"/>
       <c r="C288" s="19"/>
       <c r="D288" s="19"/>
       <c r="E288" s="19"/>
     </row>
     <row r="289" ht="20.05" customHeight="1">
       <c r="A289" s="15"/>
-      <c r="B289" s="28"/>
+      <c r="B289" s="20"/>
       <c r="C289" s="19"/>
       <c r="D289" s="19"/>
       <c r="E289" s="19"/>
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" s="15"/>
-      <c r="B290" s="28"/>
+      <c r="B290" s="20"/>
       <c r="C290" s="19"/>
       <c r="D290" s="19"/>
       <c r="E290" s="19"/>
     </row>
     <row r="291" ht="20.05" customHeight="1">
       <c r="A291" s="15"/>
-      <c r="B291" s="28"/>
+      <c r="B291" s="20"/>
       <c r="C291" s="19"/>
       <c r="D291" s="19"/>
       <c r="E291" s="19"/>
     </row>
     <row r="292" ht="20.05" customHeight="1">
       <c r="A292" s="15"/>
-      <c r="B292" s="28"/>
+      <c r="B292" s="20"/>
       <c r="C292" s="19"/>
       <c r="D292" s="19"/>
       <c r="E292" s="19"/>
     </row>
     <row r="293" ht="20.05" customHeight="1">
       <c r="A293" s="15"/>
-      <c r="B293" s="28"/>
+      <c r="B293" s="20"/>
       <c r="C293" s="19"/>
       <c r="D293" s="19"/>
       <c r="E293" s="19"/>
     </row>
     <row r="294" ht="20.05" customHeight="1">
       <c r="A294" s="15"/>
-      <c r="B294" s="28"/>
+      <c r="B294" s="20"/>
       <c r="C294" s="19"/>
       <c r="D294" s="19"/>
       <c r="E294" s="19"/>
     </row>
     <row r="295" ht="20.05" customHeight="1">
       <c r="A295" s="15"/>
-      <c r="B295" s="28"/>
+      <c r="B295" s="20"/>
       <c r="C295" s="19"/>
       <c r="D295" s="19"/>
       <c r="E295" s="19"/>
     </row>
     <row r="296" ht="20.05" customHeight="1">
       <c r="A296" s="15"/>
-      <c r="B296" s="28"/>
+      <c r="B296" s="20"/>
       <c r="C296" s="19"/>
       <c r="D296" s="19"/>
       <c r="E296" s="19"/>
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" s="15"/>
-      <c r="B297" s="28"/>
+      <c r="B297" s="20"/>
       <c r="C297" s="19"/>
       <c r="D297" s="19"/>
       <c r="E297" s="19"/>
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" s="15"/>
-      <c r="B298" s="28"/>
+      <c r="B298" s="20"/>
       <c r="C298" s="19"/>
       <c r="D298" s="19"/>
       <c r="E298" s="19"/>
     </row>
     <row r="299" ht="20.05" customHeight="1">
       <c r="A299" s="15"/>
-      <c r="B299" s="28"/>
+      <c r="B299" s="20"/>
       <c r="C299" s="19"/>
       <c r="D299" s="19"/>
       <c r="E299" s="19"/>
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" s="15"/>
-      <c r="B300" s="28"/>
+      <c r="B300" s="20"/>
       <c r="C300" s="19"/>
       <c r="D300" s="19"/>
       <c r="E300" s="19"/>
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" s="15"/>
-      <c r="B301" s="28"/>
+      <c r="B301" s="20"/>
       <c r="C301" s="19"/>
       <c r="D301" s="19"/>
       <c r="E301" s="19"/>
     </row>
     <row r="302" ht="20.05" customHeight="1">
       <c r="A302" s="15"/>
-      <c r="B302" s="28"/>
+      <c r="B302" s="20"/>
       <c r="C302" s="19"/>
       <c r="D302" s="19"/>
       <c r="E302" s="19"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" s="15"/>
-      <c r="B303" s="28"/>
+      <c r="B303" s="20"/>
       <c r="C303" s="19"/>
       <c r="D303" s="19"/>
       <c r="E303" s="19"/>
     </row>
     <row r="304" ht="20.05" customHeight="1">
       <c r="A304" s="15"/>
-      <c r="B304" s="28"/>
+      <c r="B304" s="20"/>
       <c r="C304" s="19"/>
       <c r="D304" s="19"/>
       <c r="E304" s="19"/>
     </row>
     <row r="305" ht="20.05" customHeight="1">
       <c r="A305" s="15"/>
-      <c r="B305" s="28"/>
+      <c r="B305" s="20"/>
       <c r="C305" s="19"/>
       <c r="D305" s="19"/>
       <c r="E305" s="19"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" s="15"/>
-      <c r="B306" s="28"/>
+      <c r="B306" s="20"/>
       <c r="C306" s="19"/>
       <c r="D306" s="19"/>
       <c r="E306" s="19"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" s="15"/>
-      <c r="B307" s="28"/>
+      <c r="B307" s="20"/>
       <c r="C307" s="19"/>
       <c r="D307" s="19"/>
       <c r="E307" s="19"/>
     </row>
     <row r="308" ht="20.05" customHeight="1">
       <c r="A308" s="15"/>
-      <c r="B308" s="28"/>
+      <c r="B308" s="20"/>
       <c r="C308" s="19"/>
       <c r="D308" s="19"/>
       <c r="E308" s="19"/>
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" s="15"/>
-      <c r="B309" s="28"/>
+      <c r="B309" s="20"/>
       <c r="C309" s="19"/>
       <c r="D309" s="19"/>
       <c r="E309" s="19"/>
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" s="15"/>
-      <c r="B310" s="28"/>
+      <c r="B310" s="20"/>
       <c r="C310" s="19"/>
       <c r="D310" s="19"/>
       <c r="E310" s="19"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" s="15"/>
-      <c r="B311" s="28"/>
+      <c r="B311" s="20"/>
       <c r="C311" s="19"/>
       <c r="D311" s="19"/>
       <c r="E311" s="19"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" s="15"/>
-      <c r="B312" s="28"/>
+      <c r="B312" s="20"/>
       <c r="C312" s="19"/>
       <c r="D312" s="19"/>
       <c r="E312" s="19"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" s="15"/>
-      <c r="B313" s="28"/>
+      <c r="B313" s="20"/>
       <c r="C313" s="19"/>
       <c r="D313" s="19"/>
       <c r="E313" s="19"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
       <c r="A314" s="15"/>
-      <c r="B314" s="28"/>
+      <c r="B314" s="20"/>
       <c r="C314" s="19"/>
       <c r="D314" s="19"/>
       <c r="E314" s="19"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
       <c r="A315" s="15"/>
-      <c r="B315" s="28"/>
+      <c r="B315" s="20"/>
       <c r="C315" s="19"/>
       <c r="D315" s="19"/>
       <c r="E315" s="19"/>
     </row>
     <row r="316" ht="20.05" customHeight="1">
       <c r="A316" s="15"/>
-      <c r="B316" s="28"/>
+      <c r="B316" s="20"/>
       <c r="C316" s="19"/>
       <c r="D316" s="19"/>
       <c r="E316" s="19"/>
     </row>
     <row r="317" ht="20.05" customHeight="1">
       <c r="A317" s="15"/>
-      <c r="B317" s="28"/>
+      <c r="B317" s="20"/>
       <c r="C317" s="19"/>
       <c r="D317" s="19"/>
       <c r="E317" s="19"/>
     </row>
     <row r="318" ht="20.05" customHeight="1">
       <c r="A318" s="15"/>
-      <c r="B318" s="28"/>
+      <c r="B318" s="20"/>
       <c r="C318" s="19"/>
       <c r="D318" s="19"/>
       <c r="E318" s="19"/>
@@ -10220,7 +10339,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -10229,7 +10348,7 @@
       <c r="A5" t="s" s="35">
         <v>19</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="23">
         <v>6.1</v>
       </c>
       <c r="C5" t="s" s="17">
@@ -10242,7 +10361,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="40">
         <v>0.0001</v>
       </c>
@@ -10253,7 +10372,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="40">
         <v>0.0002</v>
       </c>
@@ -10264,7 +10383,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="40">
         <v>0.0005</v>
       </c>
@@ -10275,7 +10394,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="41">
         <v>0.001</v>
       </c>
@@ -10286,7 +10405,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="41">
         <v>0.002</v>
       </c>
@@ -10297,7 +10416,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="21">
         <v>0.00506</v>
       </c>
@@ -10310,7 +10429,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="42">
         <v>0.01</v>
       </c>
@@ -10321,7 +10440,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="42">
         <v>0.02</v>
       </c>
@@ -10332,7 +10451,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="40">
         <v>0.0505</v>
       </c>
@@ -10343,7 +10462,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -10411,7 +10530,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="19"/>
       <c r="D4" s="22">
         <v>1</v>
@@ -10422,7 +10541,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="19"/>
       <c r="D5" s="22">
         <v>0.75</v>
@@ -10433,7 +10552,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="19"/>
       <c r="D6" s="22">
         <v>0.25</v>
@@ -10444,7 +10563,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="19"/>
       <c r="D7" s="22">
         <v>1.25</v>
@@ -10455,7 +10574,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="19"/>
       <c r="D8" s="22">
         <v>1.5</v>
@@ -10466,7 +10585,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="D9" s="22">
         <v>1.75</v>
@@ -10477,7 +10596,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="19"/>
       <c r="D10" s="22">
         <v>2</v>
@@ -10488,7 +10607,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="19"/>
       <c r="D11" s="22">
         <v>2.25</v>
@@ -10499,7 +10618,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="19"/>
       <c r="D12" s="22">
         <v>2.5</v>
@@ -10510,7 +10629,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="19"/>
       <c r="D13" s="22">
         <v>2.75</v>
@@ -10521,7 +10640,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="19"/>
       <c r="D14" s="22">
         <v>3</v>
@@ -10532,7 +10651,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="19"/>
       <c r="D15" s="22">
         <v>3.25</v>
@@ -10543,7 +10662,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="28"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="19"/>
       <c r="D16" s="22">
         <v>3.5</v>
@@ -10554,7 +10673,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="19"/>
       <c r="D17" s="22">
         <v>3.75</v>
@@ -10565,7 +10684,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="28"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="19"/>
       <c r="D18" s="22">
         <v>4</v>
@@ -10576,7 +10695,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="19"/>
       <c r="D19" s="22">
         <v>4.25</v>
@@ -10587,7 +10706,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="19"/>
       <c r="D20" s="22">
         <v>4.5</v>
@@ -10598,7 +10717,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="19"/>
       <c r="D21" s="22">
         <v>4.75</v>
@@ -10609,7 +10728,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="19"/>
       <c r="D22" s="22">
         <v>5</v>
@@ -10620,7 +10739,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="19"/>
       <c r="D23" s="22">
         <v>5.25</v>
@@ -10631,7 +10750,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="15"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="19"/>
       <c r="D24" s="22">
         <v>5.5</v>
@@ -10642,7 +10761,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="19"/>
       <c r="D25" s="22">
         <v>5.75</v>
@@ -10653,7 +10772,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="19"/>
       <c r="D26" s="22">
         <v>6</v>
@@ -10664,7 +10783,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="19"/>
       <c r="D27" s="22">
         <v>3.8</v>
@@ -10675,7 +10794,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="19"/>
       <c r="D28" s="22">
         <v>3.9</v>
@@ -10686,7 +10805,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="19"/>
       <c r="D29" s="22">
         <v>3.95</v>
@@ -10697,7 +10816,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="28"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="19"/>
       <c r="D30" s="22">
         <v>4.05</v>
@@ -10708,7 +10827,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="15"/>
-      <c r="B31" s="28"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="19"/>
       <c r="D31" s="22">
         <v>4.1</v>
@@ -10719,7 +10838,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="28"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="19"/>
       <c r="D32" s="22">
         <v>4.2</v>
@@ -10730,7 +10849,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="15"/>
-      <c r="B33" s="28"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="19"/>
       <c r="D33" s="22">
         <v>4.15</v>
@@ -10741,7 +10860,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="15"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="19"/>
       <c r="D34" s="22">
         <v>3.85</v>
@@ -10817,7 +10936,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -10825,7 +10944,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -10833,7 +10952,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="42">
         <v>0.05</v>
       </c>
@@ -10843,7 +10962,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="41">
         <v>0.019</v>
       </c>
@@ -10857,7 +10976,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="42">
         <v>0.01</v>
       </c>
@@ -10871,7 +10990,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="21">
         <v>0.00501</v>
       </c>
@@ -10885,7 +11004,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="40">
         <v>0.0515</v>
       </c>
@@ -10899,7 +11018,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="46">
         <v>0.1</v>
       </c>
@@ -10913,7 +11032,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="46">
         <v>0.2</v>
       </c>
@@ -10927,7 +11046,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="46">
         <v>0.5</v>
       </c>
@@ -10941,7 +11060,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="22">
         <v>1</v>
       </c>
@@ -10955,7 +11074,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -10963,7 +11082,7 @@
     </row>
     <row r="16" ht="32.05" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="28"/>
+      <c r="B16" s="20"/>
       <c r="C16" t="s" s="17">
         <v>29</v>
       </c>
@@ -10973,7 +11092,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -10981,7 +11100,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="28"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -10989,7 +11108,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -10997,7 +11116,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -11005,7 +11124,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -11013,7 +11132,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -11021,7 +11140,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -11029,7 +11148,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="15"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
@@ -11037,7 +11156,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
@@ -11045,7 +11164,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
@@ -11053,7 +11172,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
@@ -11061,7 +11180,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -11069,7 +11188,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -11077,7 +11196,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" s="15"/>
-      <c r="B30" s="28"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
@@ -11085,7 +11204,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="15"/>
-      <c r="B31" s="28"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -11093,7 +11212,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="28"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -11101,7 +11220,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" s="15"/>
-      <c r="B33" s="28"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -11109,7 +11228,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" s="15"/>
-      <c r="B34" s="28"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -11117,7 +11236,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" s="15"/>
-      <c r="B35" s="28"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
@@ -11125,7 +11244,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" s="15"/>
-      <c r="B36" s="28"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -11133,7 +11252,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="15"/>
-      <c r="B37" s="28"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
@@ -11141,7 +11260,7 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" s="15"/>
-      <c r="B38" s="28"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -11149,7 +11268,7 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" s="15"/>
-      <c r="B39" s="28"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -11157,7 +11276,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" s="15"/>
-      <c r="B40" s="28"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -11165,7 +11284,7 @@
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" s="15"/>
-      <c r="B41" s="28"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -11173,7 +11292,7 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="15"/>
-      <c r="B42" s="28"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -11181,7 +11300,7 @@
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="15"/>
-      <c r="B43" s="28"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="19"/>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -11189,7 +11308,7 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="15"/>
-      <c r="B44" s="28"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
@@ -11197,7 +11316,7 @@
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" s="15"/>
-      <c r="B45" s="28"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -11205,7 +11324,7 @@
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="15"/>
-      <c r="B46" s="28"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -11213,7 +11332,7 @@
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" s="15"/>
-      <c r="B47" s="28"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
@@ -11221,7 +11340,7 @@
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" s="15"/>
-      <c r="B48" s="28"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -11229,7 +11348,7 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" s="15"/>
-      <c r="B49" s="28"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -11237,7 +11356,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" s="15"/>
-      <c r="B50" s="28"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
@@ -11245,7 +11364,7 @@
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="15"/>
-      <c r="B51" s="28"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -11253,7 +11372,7 @@
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" s="15"/>
-      <c r="B52" s="28"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -11261,7 +11380,7 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" s="15"/>
-      <c r="B53" s="28"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
@@ -11269,7 +11388,7 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" s="15"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
@@ -11277,7 +11396,7 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" s="15"/>
-      <c r="B55" s="28"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -11285,7 +11404,7 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" s="15"/>
-      <c r="B56" s="28"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
@@ -11293,7 +11412,7 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" s="15"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
@@ -11301,7 +11420,7 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" s="15"/>
-      <c r="B58" s="28"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="19"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
@@ -11309,7 +11428,7 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" s="15"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
@@ -11334,7 +11453,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -11342,8 +11461,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="47" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="47" customWidth="1"/>
+    <col min="1" max="34" width="16.3516" style="47" customWidth="1"/>
+    <col min="35" max="256" width="16.3516" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -11355,6 +11474,34 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
       <c r="A2" s="8"/>
@@ -11369,6 +11516,60 @@
         <v>32</v>
       </c>
       <c r="F2" s="8"/>
+      <c r="G2" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s" s="9">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s" s="9">
+        <v>35</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" t="s" s="9">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s" s="9">
+        <v>39</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="V2" s="8"/>
+      <c r="W2" t="s" s="9">
+        <v>38</v>
+      </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="11"/>
@@ -11383,10 +11584,40 @@
         <v>148.2</v>
       </c>
       <c r="F3" s="13"/>
+      <c r="G3" t="s" s="31">
+        <v>41</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="28"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="19"/>
       <c r="D4" s="22">
         <v>30</v>
@@ -11395,10 +11626,54 @@
         <v>452</v>
       </c>
       <c r="F4" s="19"/>
+      <c r="G4" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="22">
+        <v>40</v>
+      </c>
+      <c r="I4" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J4" s="22">
+        <v>0.7067</v>
+      </c>
+      <c r="K4" s="49">
+        <v>3360000000000000</v>
+      </c>
+      <c r="L4" s="22">
+        <v>2.35</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="22">
+        <v>40</v>
+      </c>
+      <c r="O4" s="49">
+        <v>3360000000000000</v>
+      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="28"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="19"/>
       <c r="D5" s="22">
         <v>40</v>
@@ -11407,10 +11682,54 @@
         <v>721</v>
       </c>
       <c r="F5" s="19"/>
+      <c r="G5" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H5" s="22">
+        <v>20</v>
+      </c>
+      <c r="I5" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J5" s="22">
+        <v>1.0043</v>
+      </c>
+      <c r="K5" s="49">
+        <v>6380000000000000</v>
+      </c>
+      <c r="L5" s="22">
+        <v>1.27</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="22">
+        <v>20</v>
+      </c>
+      <c r="O5" s="49">
+        <v>6380000000000000</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="28"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="19"/>
       <c r="D6" s="22">
         <v>50</v>
@@ -11419,10 +11738,54 @@
         <v>901</v>
       </c>
       <c r="F6" s="19"/>
+      <c r="G6" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H6" s="22">
+        <v>30</v>
+      </c>
+      <c r="I6" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1.8277</v>
+      </c>
+      <c r="K6" s="49">
+        <v>2.31e+16</v>
+      </c>
+      <c r="L6" s="22">
+        <v>4.77</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="22">
+        <v>30</v>
+      </c>
+      <c r="O6" s="49">
+        <v>2.31e+16</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="28"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="19"/>
       <c r="D7" s="22">
         <v>60</v>
@@ -11431,10 +11794,66 @@
         <v>1038</v>
       </c>
       <c r="F7" s="19"/>
+      <c r="G7" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="22">
+        <v>36.2</v>
+      </c>
+      <c r="I7" s="22">
+        <v>6.7</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1.8981</v>
+      </c>
+      <c r="K7" s="49">
+        <v>2.97e+16</v>
+      </c>
+      <c r="L7" s="22">
+        <v>4.75</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="22">
+        <v>36.2</v>
+      </c>
+      <c r="O7" s="49">
+        <v>2.97e+16</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="22">
+        <v>6.7</v>
+      </c>
+      <c r="R7" s="22">
+        <v>1.8981</v>
+      </c>
+      <c r="S7" s="19"/>
+      <c r="T7" s="22">
+        <v>6.7</v>
+      </c>
+      <c r="U7" s="49">
+        <v>2.97e+16</v>
+      </c>
+      <c r="V7" s="19"/>
+      <c r="W7" s="22">
+        <v>6.7</v>
+      </c>
+      <c r="X7" s="22">
+        <v>4.75</v>
+      </c>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="40">
         <v>0.0001</v>
       </c>
@@ -11445,10 +11864,66 @@
         <v>729</v>
       </c>
       <c r="F8" s="19"/>
+      <c r="G8" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="22">
+        <v>40</v>
+      </c>
+      <c r="I8" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1.6909</v>
+      </c>
+      <c r="K8" s="49">
+        <v>3.19e+16</v>
+      </c>
+      <c r="L8" s="22">
+        <v>4.35</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="22">
+        <v>40</v>
+      </c>
+      <c r="O8" s="49">
+        <v>3.19e+16</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="R8" s="22">
+        <v>1.6909</v>
+      </c>
+      <c r="S8" s="19"/>
+      <c r="T8" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="U8" s="49">
+        <v>3.19e+16</v>
+      </c>
+      <c r="V8" s="19"/>
+      <c r="W8" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="X8" s="22">
+        <v>4.35</v>
+      </c>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="28"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="41">
         <v>0.001</v>
       </c>
@@ -11459,18 +11934,118 @@
         <v>2430</v>
       </c>
       <c r="F9" s="19"/>
+      <c r="G9" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="22">
+        <v>40</v>
+      </c>
+      <c r="I9" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0.7274</v>
+      </c>
+      <c r="K9" s="49">
+        <v>3920000000000000</v>
+      </c>
+      <c r="L9" s="22">
+        <v>2.08</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="22">
+        <v>40</v>
+      </c>
+      <c r="O9" s="49">
+        <v>3920000000000000</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0.7274</v>
+      </c>
+      <c r="S9" s="19"/>
+      <c r="T9" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="U9" s="49">
+        <v>3920000000000000</v>
+      </c>
+      <c r="V9" s="19"/>
+      <c r="W9" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="X9" s="22">
+        <v>2.08</v>
+      </c>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
+      <c r="G10" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="22">
+        <v>50</v>
+      </c>
+      <c r="I10" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J10" s="22">
+        <v>1.6203</v>
+      </c>
+      <c r="K10" s="49">
+        <v>4.1e+16</v>
+      </c>
+      <c r="L10" s="22">
+        <v>4.24</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="22">
+        <v>50</v>
+      </c>
+      <c r="O10" s="49">
+        <v>4.1e+16</v>
+      </c>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="28"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="42">
         <v>0.01</v>
       </c>
@@ -11481,12 +12056,56 @@
         <v>247</v>
       </c>
       <c r="F11" t="s" s="17">
-        <v>33</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="22">
+        <v>60</v>
+      </c>
+      <c r="I11" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J11" s="22">
+        <v>1.462</v>
+      </c>
+      <c r="K11" s="49">
+        <v>4.69e+16</v>
+      </c>
+      <c r="L11" s="22">
+        <v>3.7</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="22">
+        <v>60</v>
+      </c>
+      <c r="O11" s="49">
+        <v>4.69e+16</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="28"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="42">
         <v>0.01</v>
       </c>
@@ -11497,20 +12116,76 @@
         <v>3770</v>
       </c>
       <c r="F12" t="s" s="17">
-        <v>34</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="28"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="41">
         <v>0.001</v>
       </c>
@@ -11521,10 +12196,40 @@
         <v>740</v>
       </c>
       <c r="F14" s="19"/>
+      <c r="G14" t="s" s="17">
+        <v>44</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="28"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="46">
         <v>0.1</v>
       </c>
@@ -11535,122 +12240,690 @@
         <v>505</v>
       </c>
       <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="28"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
+      <c r="G16" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="22">
+        <v>20</v>
+      </c>
+      <c r="I16" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J16" s="22">
+        <v>1.0377</v>
+      </c>
+      <c r="K16" s="49">
+        <v>5.25e+16</v>
+      </c>
+      <c r="L16" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="22">
+        <v>20</v>
+      </c>
+      <c r="O16" s="49">
+        <v>5.25e+16</v>
+      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
+      <c r="G17" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="22">
+        <v>30</v>
+      </c>
+      <c r="I17" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0.8475</v>
+      </c>
+      <c r="K17" s="49">
+        <v>1.5e+17</v>
+      </c>
+      <c r="L17" s="22">
+        <v>2.86</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="22">
+        <v>30</v>
+      </c>
+      <c r="O17" s="49">
+        <v>1.5e+17</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="28"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
+      <c r="G18" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H18" s="22">
+        <v>36.9</v>
+      </c>
+      <c r="I18" s="22">
+        <v>6.7</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="K18" s="49">
+        <v>2.47e+17</v>
+      </c>
+      <c r="L18" s="22">
+        <v>2.61</v>
+      </c>
+      <c r="M18" s="19"/>
+      <c r="N18" s="22">
+        <v>36.9</v>
+      </c>
+      <c r="O18" s="49">
+        <v>2.47e+17</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="22">
+        <v>6.7</v>
+      </c>
+      <c r="R18" s="22">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="S18" s="19"/>
+      <c r="T18" s="22">
+        <v>6.7</v>
+      </c>
+      <c r="U18" s="49">
+        <v>2.47e+17</v>
+      </c>
+      <c r="V18" s="19"/>
+      <c r="W18" s="22">
+        <v>6.7</v>
+      </c>
+      <c r="X18" s="22">
+        <v>2.61</v>
+      </c>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="28"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
+      <c r="G19" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H19" s="22">
+        <v>40</v>
+      </c>
+      <c r="I19" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0.8633999999999999</v>
+      </c>
+      <c r="K19" s="49">
+        <v>2.57e+17</v>
+      </c>
+      <c r="L19" s="22">
+        <v>3.47</v>
+      </c>
+      <c r="M19" s="19"/>
+      <c r="N19" s="22">
+        <v>40</v>
+      </c>
+      <c r="O19" s="49">
+        <v>2.57e+17</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="R19" s="22">
+        <v>0.8633999999999999</v>
+      </c>
+      <c r="S19" s="19"/>
+      <c r="T19" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="U19" s="49">
+        <v>2.57e+17</v>
+      </c>
+      <c r="V19" s="19"/>
+      <c r="W19" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="X19" s="22">
+        <v>3.47</v>
+      </c>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="28"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
+      <c r="G20" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H20" s="22">
+        <v>40</v>
+      </c>
+      <c r="I20" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0.2869</v>
+      </c>
+      <c r="K20" s="49">
+        <v>1.01e+16</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="M20" s="19"/>
+      <c r="N20" s="22">
+        <v>40</v>
+      </c>
+      <c r="O20" s="49">
+        <v>1.01e+16</v>
+      </c>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="R20" s="22">
+        <v>0.2869</v>
+      </c>
+      <c r="S20" s="19"/>
+      <c r="T20" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="U20" s="49">
+        <v>1.01e+16</v>
+      </c>
+      <c r="V20" s="19"/>
+      <c r="W20" s="22">
+        <v>6.1</v>
+      </c>
+      <c r="X20" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
+      <c r="G21" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="22">
+        <v>50</v>
+      </c>
+      <c r="I21" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J21" s="22">
+        <v>0.8541</v>
+      </c>
+      <c r="K21" s="49">
+        <v>3.04e+17</v>
+      </c>
+      <c r="L21" s="22">
+        <v>3.54</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="22">
+        <v>50</v>
+      </c>
+      <c r="O21" s="49">
+        <v>3.04e+17</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
+      <c r="G22" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="22">
+        <v>60</v>
+      </c>
+      <c r="I22" s="22">
+        <v>6.5</v>
+      </c>
+      <c r="J22" s="22">
+        <v>0.8369</v>
+      </c>
+      <c r="K22" s="49">
+        <v>4.03e+17</v>
+      </c>
+      <c r="L22" s="22">
+        <v>3.71</v>
+      </c>
+      <c r="M22" s="19"/>
+      <c r="N22" s="22">
+        <v>60</v>
+      </c>
+      <c r="O22" s="49">
+        <v>4.03e+17</v>
+      </c>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="15"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="15"/>
-      <c r="B29" s="28"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -11673,8 +12946,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="49" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="49" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="50" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -11690,7 +12963,7 @@
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" t="s" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s" s="9">
         <v>11</v>
@@ -11699,7 +12972,7 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="11"/>
-      <c r="B3" s="50">
+      <c r="B3" s="51">
         <v>344</v>
       </c>
       <c r="C3" s="44">
@@ -11712,7 +12985,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="20">
+      <c r="B4" s="23">
         <v>342</v>
       </c>
       <c r="C4" s="22">
@@ -11725,7 +12998,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="20">
+      <c r="B5" s="23">
         <v>340</v>
       </c>
       <c r="C5" s="22">
@@ -11738,7 +13011,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="20">
+      <c r="B6" s="23">
         <v>338</v>
       </c>
       <c r="C6" s="22">
@@ -11751,7 +13024,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="20">
+      <c r="B7" s="23">
         <v>336</v>
       </c>
       <c r="C7" s="22">
@@ -11764,7 +13037,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="20">
+      <c r="B8" s="23">
         <v>334</v>
       </c>
       <c r="C8" s="22">
@@ -11777,7 +13050,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="20">
+      <c r="B9" s="23">
         <v>332</v>
       </c>
       <c r="C9" s="22">
@@ -11790,7 +13063,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="20">
+      <c r="B10" s="23">
         <v>330</v>
       </c>
       <c r="C10" s="22">
@@ -11803,7 +13076,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="20">
+      <c r="B11" s="23">
         <v>328</v>
       </c>
       <c r="C11" s="22">
@@ -11816,7 +13089,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <v>326</v>
       </c>
       <c r="C12" s="22">
@@ -11829,7 +13102,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="20">
+      <c r="B13" s="23">
         <v>324</v>
       </c>
       <c r="C13" s="22">
@@ -11842,7 +13115,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="20">
+      <c r="B14" s="23">
         <v>322</v>
       </c>
       <c r="C14" s="22">
@@ -11855,7 +13128,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="20">
+      <c r="B15" s="23">
         <v>320</v>
       </c>
       <c r="C15" s="22">
@@ -11868,7 +13141,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="20">
+      <c r="B16" s="23">
         <v>318</v>
       </c>
       <c r="C16" s="22">
@@ -11881,7 +13154,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="15"/>
-      <c r="B17" s="20">
+      <c r="B17" s="23">
         <v>316</v>
       </c>
       <c r="C17" s="22">
@@ -11894,7 +13167,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="20">
+      <c r="B18" s="23">
         <v>314</v>
       </c>
       <c r="C18" s="22">
@@ -11907,7 +13180,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="20">
+      <c r="B19" s="23">
         <v>312</v>
       </c>
       <c r="C19" s="22">
@@ -11920,7 +13193,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="20">
+      <c r="B20" s="23">
         <v>310</v>
       </c>
       <c r="C20" s="22">
@@ -11933,56 +13206,56 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="15"/>
-      <c r="B21" s="28"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="28"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="28"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="15"/>
-      <c r="B24" s="28"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="28"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="28"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="15"/>
-      <c r="B27" s="28"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="15"/>
-      <c r="B28" s="28"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
